--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4502,28 +4502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4185.76431645892</v>
+        <v>4414.712287250555</v>
       </c>
       <c r="AB2" t="n">
-        <v>5727.147400668211</v>
+        <v>6040.40411477696</v>
       </c>
       <c r="AC2" t="n">
-        <v>5180.556490850083</v>
+        <v>5463.91642382284</v>
       </c>
       <c r="AD2" t="n">
-        <v>4185764.31645892</v>
+        <v>4414712.287250555</v>
       </c>
       <c r="AE2" t="n">
-        <v>5727147.400668211</v>
+        <v>6040404.114776961</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.862152907441767e-07</v>
+        <v>8.219710731586657e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.67438271604939</v>
       </c>
       <c r="AH2" t="n">
-        <v>5180556.490850083</v>
+        <v>5463916.42382284</v>
       </c>
     </row>
     <row r="3">
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2452.71721665284</v>
+        <v>2608.76388752096</v>
       </c>
       <c r="AB3" t="n">
-        <v>3355.915902071393</v>
+        <v>3569.425841446418</v>
       </c>
       <c r="AC3" t="n">
-        <v>3035.631998435123</v>
+        <v>3228.764848859269</v>
       </c>
       <c r="AD3" t="n">
-        <v>2452717.21665284</v>
+        <v>2608763.887520961</v>
       </c>
       <c r="AE3" t="n">
-        <v>3355915.902071393</v>
+        <v>3569425.841446417</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.883060704788485e-07</v>
+        <v>1.163615563276893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.43672839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>3035631.998435123</v>
+        <v>3228764.848859269</v>
       </c>
     </row>
     <row r="4">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2075.761939573023</v>
+        <v>2211.064982886556</v>
       </c>
       <c r="AB4" t="n">
-        <v>2840.149061877463</v>
+        <v>3025.276654888201</v>
       </c>
       <c r="AC4" t="n">
-        <v>2569.089221586122</v>
+        <v>2736.54849694801</v>
       </c>
       <c r="AD4" t="n">
-        <v>2075761.939573023</v>
+        <v>2211064.982886556</v>
       </c>
       <c r="AE4" t="n">
-        <v>2840149.061877463</v>
+        <v>3025276.654888202</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.679764740280942e-07</v>
+        <v>1.298302333419655e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.38117283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>2569089.221586122</v>
+        <v>2736548.49694801</v>
       </c>
     </row>
     <row r="5">
@@ -4820,28 +4820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1897.027468224466</v>
+        <v>2032.330422029445</v>
       </c>
       <c r="AB5" t="n">
-        <v>2595.596672970001</v>
+        <v>2780.724143511014</v>
       </c>
       <c r="AC5" t="n">
-        <v>2347.876569444554</v>
+        <v>2515.33573402517</v>
       </c>
       <c r="AD5" t="n">
-        <v>1897027.468224466</v>
+        <v>2032330.422029445</v>
       </c>
       <c r="AE5" t="n">
-        <v>2595596.672970001</v>
+        <v>2780724.143511014</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.108840018459805e-07</v>
+        <v>1.370839638104321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.98842592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>2347876.569444554</v>
+        <v>2515335.73402517</v>
       </c>
     </row>
     <row r="6">
@@ -4926,28 +4926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1804.184881608292</v>
+        <v>1929.073440717241</v>
       </c>
       <c r="AB6" t="n">
-        <v>2468.565350035906</v>
+        <v>2639.443386303144</v>
       </c>
       <c r="AC6" t="n">
-        <v>2232.968937681708</v>
+        <v>2387.538613996431</v>
       </c>
       <c r="AD6" t="n">
-        <v>1804184.881608292</v>
+        <v>1929073.440717241</v>
       </c>
       <c r="AE6" t="n">
-        <v>2468565.350035906</v>
+        <v>2639443.386303144</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.374583091603631e-07</v>
+        <v>1.415764823135459e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.19367283950617</v>
       </c>
       <c r="AH6" t="n">
-        <v>2232968.937681708</v>
+        <v>2387538.613996431</v>
       </c>
     </row>
     <row r="7">
@@ -5032,28 +5032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1730.495532994588</v>
+        <v>1855.469343449558</v>
       </c>
       <c r="AB7" t="n">
-        <v>2367.740332318016</v>
+        <v>2538.735013237903</v>
       </c>
       <c r="AC7" t="n">
-        <v>2141.766518146012</v>
+        <v>2296.441706711447</v>
       </c>
       <c r="AD7" t="n">
-        <v>1730495.532994588</v>
+        <v>1855469.343449558</v>
       </c>
       <c r="AE7" t="n">
-        <v>2367740.332318016</v>
+        <v>2538735.013237903</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.553145630870234e-07</v>
+        <v>1.445951706357964e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.68827160493827</v>
       </c>
       <c r="AH7" t="n">
-        <v>2141766.518146012</v>
+        <v>2296441.706711447</v>
       </c>
     </row>
     <row r="8">
@@ -5138,28 +5138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1677.290413279313</v>
+        <v>1802.093631533691</v>
       </c>
       <c r="AB8" t="n">
-        <v>2294.942740279355</v>
+        <v>2465.704009424396</v>
       </c>
       <c r="AC8" t="n">
-        <v>2075.916626119459</v>
+        <v>2230.380679402243</v>
       </c>
       <c r="AD8" t="n">
-        <v>1677290.413279313</v>
+        <v>1802093.631533691</v>
       </c>
       <c r="AE8" t="n">
-        <v>2294942.740279356</v>
+        <v>2465704.009424396</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.693369742588418e-07</v>
+        <v>1.469657288182695e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.30632716049383</v>
       </c>
       <c r="AH8" t="n">
-        <v>2075916.626119459</v>
+        <v>2230380.679402243</v>
       </c>
     </row>
     <row r="9">
@@ -5244,28 +5244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1631.113728585971</v>
+        <v>1745.673144344911</v>
       </c>
       <c r="AB9" t="n">
-        <v>2231.761763110373</v>
+        <v>2388.507009756484</v>
       </c>
       <c r="AC9" t="n">
-        <v>2018.765552736425</v>
+        <v>2160.551253035967</v>
       </c>
       <c r="AD9" t="n">
-        <v>1631113.728585971</v>
+        <v>1745673.144344911</v>
       </c>
       <c r="AE9" t="n">
-        <v>2231761.763110373</v>
+        <v>2388507.009756484</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.803133185843475e-07</v>
+        <v>1.48821334286947e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.01697530864197</v>
       </c>
       <c r="AH9" t="n">
-        <v>2018765.552736426</v>
+        <v>2160551.253035967</v>
       </c>
     </row>
     <row r="10">
@@ -5350,28 +5350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1585.98432112304</v>
+        <v>1710.872790723438</v>
       </c>
       <c r="AB10" t="n">
-        <v>2170.013716850648</v>
+        <v>2340.891630648337</v>
       </c>
       <c r="AC10" t="n">
-        <v>1962.910653347802</v>
+        <v>2117.480218881298</v>
       </c>
       <c r="AD10" t="n">
-        <v>1585984.32112304</v>
+        <v>1710872.790723438</v>
       </c>
       <c r="AE10" t="n">
-        <v>2170013.716850648</v>
+        <v>2340891.630648337</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.878234489123251e-07</v>
+        <v>1.500909590813053e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.82021604938272</v>
       </c>
       <c r="AH10" t="n">
-        <v>1962910.653347802</v>
+        <v>2117480.218881298</v>
       </c>
     </row>
     <row r="11">
@@ -5456,28 +5456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1555.794282745971</v>
+        <v>1680.682752346369</v>
       </c>
       <c r="AB11" t="n">
-        <v>2128.706374452649</v>
+        <v>2299.584288250339</v>
       </c>
       <c r="AC11" t="n">
-        <v>1925.545625733049</v>
+        <v>2080.115191266545</v>
       </c>
       <c r="AD11" t="n">
-        <v>1555794.282745971</v>
+        <v>1680682.752346369</v>
       </c>
       <c r="AE11" t="n">
-        <v>2128706.37445265</v>
+        <v>2299584.288250339</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.942306929683621e-07</v>
+        <v>1.511741354792893e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.65817901234568</v>
       </c>
       <c r="AH11" t="n">
-        <v>1925545.625733049</v>
+        <v>2080115.191266545</v>
       </c>
     </row>
     <row r="12">
@@ -5562,28 +5562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1527.322111401531</v>
+        <v>1652.210581001929</v>
       </c>
       <c r="AB12" t="n">
-        <v>2089.749493515638</v>
+        <v>2260.627407313327</v>
       </c>
       <c r="AC12" t="n">
-        <v>1890.30673483634</v>
+        <v>2044.876300369836</v>
       </c>
       <c r="AD12" t="n">
-        <v>1527322.111401531</v>
+        <v>1652210.581001929</v>
       </c>
       <c r="AE12" t="n">
-        <v>2089749.493515638</v>
+        <v>2260627.407313327</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.992199403890465e-07</v>
+        <v>1.520175925105063e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.53086419753086</v>
       </c>
       <c r="AH12" t="n">
-        <v>1890306.73483634</v>
+        <v>2044876.300369836</v>
       </c>
     </row>
     <row r="13">
@@ -5668,28 +5668,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1490.633444928166</v>
+        <v>1605.107519832534</v>
       </c>
       <c r="AB13" t="n">
-        <v>2039.55044145705</v>
+        <v>2196.178920980964</v>
       </c>
       <c r="AC13" t="n">
-        <v>1844.898609851411</v>
+        <v>1986.578687119015</v>
       </c>
       <c r="AD13" t="n">
-        <v>1490633.444928166</v>
+        <v>1605107.519832534</v>
       </c>
       <c r="AE13" t="n">
-        <v>2039550.44145705</v>
+        <v>2196178.920980963</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.046293349609466e-07</v>
+        <v>1.529320775022469e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.39969135802469</v>
       </c>
       <c r="AH13" t="n">
-        <v>1844898.609851411</v>
+        <v>1986578.687119015</v>
       </c>
     </row>
     <row r="14">
@@ -5774,28 +5774,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1465.722757291988</v>
+        <v>1580.196832196356</v>
       </c>
       <c r="AB14" t="n">
-        <v>2005.466539651255</v>
+        <v>2162.095019175169</v>
       </c>
       <c r="AC14" t="n">
-        <v>1814.067627796905</v>
+        <v>1955.747705064509</v>
       </c>
       <c r="AD14" t="n">
-        <v>1465722.757291988</v>
+        <v>1580196.832196356</v>
       </c>
       <c r="AE14" t="n">
-        <v>2005466.539651255</v>
+        <v>2162095.019175169</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.075703650194554e-07</v>
+        <v>1.534292732259117e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.32638888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1814067.627796905</v>
+        <v>1955747.705064509</v>
       </c>
     </row>
     <row r="15">
@@ -5880,28 +5880,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1444.154245413949</v>
+        <v>1558.628320318317</v>
       </c>
       <c r="AB15" t="n">
-        <v>1975.955550164134</v>
+        <v>2132.584029688048</v>
       </c>
       <c r="AC15" t="n">
-        <v>1787.373125727501</v>
+        <v>1929.053202995104</v>
       </c>
       <c r="AD15" t="n">
-        <v>1444154.245413949</v>
+        <v>1558628.320318317</v>
       </c>
       <c r="AE15" t="n">
-        <v>1975955.550164134</v>
+        <v>2132584.029688048</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.105639134718659e-07</v>
+        <v>1.539353474446419e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.25308641975309</v>
       </c>
       <c r="AH15" t="n">
-        <v>1787373.125727501</v>
+        <v>1929053.202995104</v>
       </c>
     </row>
     <row r="16">
@@ -5986,28 +5986,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1437.987736845948</v>
+        <v>1552.461811750316</v>
       </c>
       <c r="AB16" t="n">
-        <v>1967.518261094238</v>
+        <v>2124.146740618151</v>
       </c>
       <c r="AC16" t="n">
-        <v>1779.741079684626</v>
+        <v>1921.421156952229</v>
       </c>
       <c r="AD16" t="n">
-        <v>1437987.736845948</v>
+        <v>1552461.811750316</v>
       </c>
       <c r="AE16" t="n">
-        <v>1967518.261094238</v>
+        <v>2124146.740618151</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.11404207774297e-07</v>
+        <v>1.54077403365689e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.22993827160494</v>
       </c>
       <c r="AH16" t="n">
-        <v>1779741.079684626</v>
+        <v>1921421.156952229</v>
       </c>
     </row>
     <row r="17">
@@ -6092,28 +6092,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1443.312824217995</v>
+        <v>1557.786899122364</v>
       </c>
       <c r="AB17" t="n">
-        <v>1974.804280562947</v>
+        <v>2131.432760086861</v>
       </c>
       <c r="AC17" t="n">
-        <v>1786.331731681234</v>
+        <v>1928.011808948837</v>
       </c>
       <c r="AD17" t="n">
-        <v>1443312.824217995</v>
+        <v>1557786.899122364</v>
       </c>
       <c r="AE17" t="n">
-        <v>1974804.280562947</v>
+        <v>2131432.760086861</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.115092445621011e-07</v>
+        <v>1.540951603558199e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.22993827160494</v>
       </c>
       <c r="AH17" t="n">
-        <v>1786331.731681234</v>
+        <v>1928011.808948837</v>
       </c>
     </row>
   </sheetData>
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3117.661289938185</v>
+        <v>3309.126145916364</v>
       </c>
       <c r="AB2" t="n">
-        <v>4265.721718402589</v>
+        <v>4527.692381185247</v>
       </c>
       <c r="AC2" t="n">
-        <v>3858.607224576118</v>
+        <v>4095.575774980923</v>
       </c>
       <c r="AD2" t="n">
-        <v>3117661.289938185</v>
+        <v>3309126.145916364</v>
       </c>
       <c r="AE2" t="n">
-        <v>4265721.718402589</v>
+        <v>4527692.381185247</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.75567186126068e-07</v>
+        <v>9.967620771354729e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.41589506172839</v>
       </c>
       <c r="AH2" t="n">
-        <v>3858607.224576118</v>
+        <v>4095575.774980923</v>
       </c>
     </row>
     <row r="3">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2008.658078288942</v>
+        <v>2149.926028102985</v>
       </c>
       <c r="AB3" t="n">
-        <v>2748.33459845516</v>
+        <v>2941.623639692823</v>
       </c>
       <c r="AC3" t="n">
-        <v>2486.037401690434</v>
+        <v>2660.879208115248</v>
       </c>
       <c r="AD3" t="n">
-        <v>2008658.078288942</v>
+        <v>2149926.028102985</v>
       </c>
       <c r="AE3" t="n">
-        <v>2748334.59845516</v>
+        <v>2941623.639692823</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.619718506152638e-07</v>
+        <v>1.319575998850765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.50771604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>2486037.401690434</v>
+        <v>2660879.208115248</v>
       </c>
     </row>
     <row r="4">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1740.517371564025</v>
+        <v>1871.524161333614</v>
       </c>
       <c r="AB4" t="n">
-        <v>2381.452653981033</v>
+        <v>2560.701923355445</v>
       </c>
       <c r="AC4" t="n">
-        <v>2154.170155074875</v>
+        <v>2316.312125758123</v>
       </c>
       <c r="AD4" t="n">
-        <v>1740517.371564025</v>
+        <v>1871524.161333614</v>
       </c>
       <c r="AE4" t="n">
-        <v>2381452.653981033</v>
+        <v>2560701.923355445</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.336325187765138e-07</v>
+        <v>1.443677299562649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.14274691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>2154170.155074875</v>
+        <v>2316312.125758123</v>
       </c>
     </row>
     <row r="5">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1611.40668060743</v>
+        <v>1732.408243387732</v>
       </c>
       <c r="AB5" t="n">
-        <v>2204.797710652537</v>
+        <v>2370.357387060742</v>
       </c>
       <c r="AC5" t="n">
-        <v>1994.37491160088</v>
+        <v>2144.133804857152</v>
       </c>
       <c r="AD5" t="n">
-        <v>1611406.68060743</v>
+        <v>1732408.243387731</v>
       </c>
       <c r="AE5" t="n">
-        <v>2204797.710652537</v>
+        <v>2370357.387060742</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.711199039404733e-07</v>
+        <v>1.508597616083649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1994374.91160088</v>
+        <v>2144133.804857152</v>
       </c>
     </row>
     <row r="6">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1526.590976345518</v>
+        <v>1647.507198271247</v>
       </c>
       <c r="AB6" t="n">
-        <v>2088.7491222766</v>
+        <v>2254.192031562608</v>
       </c>
       <c r="AC6" t="n">
-        <v>1889.401837624326</v>
+        <v>2039.055107848659</v>
       </c>
       <c r="AD6" t="n">
-        <v>1526590.976345518</v>
+        <v>1647507.198271248</v>
       </c>
       <c r="AE6" t="n">
-        <v>2088749.1222766</v>
+        <v>2254192.031562608</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.94101300932292e-07</v>
+        <v>1.548396592733479e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.44135802469136</v>
       </c>
       <c r="AH6" t="n">
-        <v>1889401.837624326</v>
+        <v>2039055.107848659</v>
       </c>
     </row>
     <row r="7">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1466.884714586974</v>
+        <v>1577.881050377986</v>
       </c>
       <c r="AB7" t="n">
-        <v>2007.056380884193</v>
+        <v>2158.926464326192</v>
       </c>
       <c r="AC7" t="n">
-        <v>1815.505736813928</v>
+        <v>1952.881552643222</v>
       </c>
       <c r="AD7" t="n">
-        <v>1466884.714586974</v>
+        <v>1577881.050377986</v>
       </c>
       <c r="AE7" t="n">
-        <v>2007056.380884193</v>
+        <v>2158926.464326192</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.10400164047057e-07</v>
+        <v>1.576622817307827e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.02469135802469</v>
       </c>
       <c r="AH7" t="n">
-        <v>1815505.736813928</v>
+        <v>1952881.552643222</v>
       </c>
     </row>
     <row r="8">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1413.334747171001</v>
+        <v>1534.336220442751</v>
       </c>
       <c r="AB8" t="n">
-        <v>1933.786953007831</v>
+        <v>2099.346506946488</v>
       </c>
       <c r="AC8" t="n">
-        <v>1749.229040299797</v>
+        <v>1898.987822774842</v>
       </c>
       <c r="AD8" t="n">
-        <v>1413334.747171001</v>
+        <v>1534336.220442751</v>
       </c>
       <c r="AE8" t="n">
-        <v>1933786.953007831</v>
+        <v>2099346.506946488</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.21483390965097e-07</v>
+        <v>1.595816650018384e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.74691358024691</v>
       </c>
       <c r="AH8" t="n">
-        <v>1749229.040299797</v>
+        <v>1898987.822774842</v>
       </c>
     </row>
     <row r="9">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1369.354057448802</v>
+        <v>1490.355530720552</v>
       </c>
       <c r="AB9" t="n">
-        <v>1873.610633038827</v>
+        <v>2039.170186977484</v>
       </c>
       <c r="AC9" t="n">
-        <v>1694.79586385064</v>
+        <v>1844.554646325684</v>
       </c>
       <c r="AD9" t="n">
-        <v>1369354.057448802</v>
+        <v>1490355.530720552</v>
       </c>
       <c r="AE9" t="n">
-        <v>1873610.633038827</v>
+        <v>2039170.186977484</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.29904470241059e-07</v>
+        <v>1.610400199381797e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.53858024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>1694795.86385064</v>
+        <v>1844554.646325684</v>
       </c>
     </row>
     <row r="10">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1334.14076060347</v>
+        <v>1445.051755539911</v>
       </c>
       <c r="AB10" t="n">
-        <v>1825.430246794027</v>
+        <v>1977.183563113828</v>
       </c>
       <c r="AC10" t="n">
-        <v>1651.213746047447</v>
+        <v>1788.483938844803</v>
       </c>
       <c r="AD10" t="n">
-        <v>1334140.76060347</v>
+        <v>1445051.755539911</v>
       </c>
       <c r="AE10" t="n">
-        <v>1825430.246794027</v>
+        <v>1977183.563113828</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.369673109241239e-07</v>
+        <v>1.622631563364014e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.36882716049383</v>
       </c>
       <c r="AH10" t="n">
-        <v>1651213.746047447</v>
+        <v>1788483.938844803</v>
       </c>
     </row>
     <row r="11">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1304.157675500523</v>
+        <v>1415.068670436964</v>
       </c>
       <c r="AB11" t="n">
-        <v>1784.406066995816</v>
+        <v>1936.159383315617</v>
       </c>
       <c r="AC11" t="n">
-        <v>1614.104856391379</v>
+        <v>1751.375049188735</v>
       </c>
       <c r="AD11" t="n">
-        <v>1304157.675500523</v>
+        <v>1415068.670436964</v>
       </c>
       <c r="AE11" t="n">
-        <v>1784406.066995816</v>
+        <v>1936159.383315617</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.415309925962581e-07</v>
+        <v>1.630534906244832e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.2608024691358</v>
       </c>
       <c r="AH11" t="n">
-        <v>1614104.856391379</v>
+        <v>1751375.049188735</v>
       </c>
     </row>
     <row r="12">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1303.630612586286</v>
+        <v>1414.541607522727</v>
       </c>
       <c r="AB12" t="n">
-        <v>1783.684916264181</v>
+        <v>1935.438232583982</v>
       </c>
       <c r="AC12" t="n">
-        <v>1613.45253127343</v>
+        <v>1750.722724070786</v>
       </c>
       <c r="AD12" t="n">
-        <v>1303630.612586286</v>
+        <v>1414541.607522727</v>
       </c>
       <c r="AE12" t="n">
-        <v>1783684.916264181</v>
+        <v>1935438.232583982</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.419656289459851e-07</v>
+        <v>1.631287605566814e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.25308641975309</v>
       </c>
       <c r="AH12" t="n">
-        <v>1613452.53127343</v>
+        <v>1750722.724070786</v>
       </c>
     </row>
   </sheetData>
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1415.593023081716</v>
+        <v>1543.037549459139</v>
       </c>
       <c r="AB2" t="n">
-        <v>1936.876825736972</v>
+        <v>2111.252049182253</v>
       </c>
       <c r="AC2" t="n">
-        <v>1752.024019912333</v>
+        <v>1909.757116769159</v>
       </c>
       <c r="AD2" t="n">
-        <v>1415593.023081716</v>
+        <v>1543037.549459139</v>
       </c>
       <c r="AE2" t="n">
-        <v>1936876.825736973</v>
+        <v>2111252.049182253</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.578275650382392e-07</v>
+        <v>1.623194348725488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.26466049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>1752024.019912333</v>
+        <v>1909757.116769159</v>
       </c>
     </row>
     <row r="3">
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1085.555744698398</v>
+        <v>1194.940132050982</v>
       </c>
       <c r="AB3" t="n">
-        <v>1485.305261235804</v>
+        <v>1634.969805710199</v>
       </c>
       <c r="AC3" t="n">
-        <v>1343.549811742485</v>
+        <v>1478.930582147751</v>
       </c>
       <c r="AD3" t="n">
-        <v>1085555.744698398</v>
+        <v>1194940.132050982</v>
       </c>
       <c r="AE3" t="n">
-        <v>1485305.261235804</v>
+        <v>1634969.805710199</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.866532594344413e-07</v>
+        <v>1.866960284488149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.70370370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>1343549.811742485</v>
+        <v>1478930.582147751</v>
       </c>
     </row>
     <row r="4">
@@ -7958,28 +7958,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>971.3637765261784</v>
+        <v>1080.662823024191</v>
       </c>
       <c r="AB4" t="n">
-        <v>1329.062772588487</v>
+        <v>1478.610549940684</v>
       </c>
       <c r="AC4" t="n">
-        <v>1202.218886923958</v>
+        <v>1337.494034297285</v>
       </c>
       <c r="AD4" t="n">
-        <v>971363.7765261785</v>
+        <v>1080662.823024191</v>
       </c>
       <c r="AE4" t="n">
-        <v>1329062.772588487</v>
+        <v>1478610.549940684</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.028119977065972e-06</v>
+        <v>1.945424237458342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.74691358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>1202218.886923958</v>
+        <v>1337494.034297285</v>
       </c>
     </row>
     <row r="5">
@@ -8064,28 +8064,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>973.604507923912</v>
+        <v>1082.903554421925</v>
       </c>
       <c r="AB5" t="n">
-        <v>1332.128640140958</v>
+        <v>1481.676417493156</v>
       </c>
       <c r="AC5" t="n">
-        <v>1204.992152380194</v>
+        <v>1340.267299753521</v>
       </c>
       <c r="AD5" t="n">
-        <v>973604.507923912</v>
+        <v>1082903.554421925</v>
       </c>
       <c r="AE5" t="n">
-        <v>1332128.640140958</v>
+        <v>1481676.417493156</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.028604967915463e-06</v>
+        <v>1.946341944510625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.7391975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>1204992.152380194</v>
+        <v>1340267.299753521</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1917.258212599489</v>
+        <v>2059.622422938055</v>
       </c>
       <c r="AB2" t="n">
-        <v>2623.277269941359</v>
+        <v>2818.066263192278</v>
       </c>
       <c r="AC2" t="n">
-        <v>2372.915369090927</v>
+        <v>2549.113974214048</v>
       </c>
       <c r="AD2" t="n">
-        <v>1917258.212599489</v>
+        <v>2059622.422938055</v>
       </c>
       <c r="AE2" t="n">
-        <v>2623277.269941359</v>
+        <v>2818066.263192278</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.454924029229889e-07</v>
+        <v>1.358125255977034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.01543209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>2372915.369090927</v>
+        <v>2549113.974214048</v>
       </c>
     </row>
     <row r="3">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1394.264022698364</v>
+        <v>1517.634881970434</v>
       </c>
       <c r="AB3" t="n">
-        <v>1907.693546443384</v>
+        <v>2076.494998837612</v>
       </c>
       <c r="AC3" t="n">
-        <v>1725.625951835535</v>
+        <v>1878.317230527585</v>
       </c>
       <c r="AD3" t="n">
-        <v>1394264.022698364</v>
+        <v>1517634.881970434</v>
       </c>
       <c r="AE3" t="n">
-        <v>1907693.546443384</v>
+        <v>2076494.998837612</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.979663042209924e-07</v>
+        <v>1.635899590656015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.91898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1725625.951835535</v>
+        <v>1878317.230527585</v>
       </c>
     </row>
     <row r="4">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1242.642792056308</v>
+        <v>1356.431769203386</v>
       </c>
       <c r="AB4" t="n">
-        <v>1700.238689622318</v>
+        <v>1855.929788170326</v>
       </c>
       <c r="AC4" t="n">
-        <v>1537.970295384751</v>
+        <v>1678.802454001167</v>
       </c>
       <c r="AD4" t="n">
-        <v>1242642.792056308</v>
+        <v>1356431.769203386</v>
       </c>
       <c r="AE4" t="n">
-        <v>1700238.689622318</v>
+        <v>1855929.788170326</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.526573992852819e-07</v>
+        <v>1.735534888336608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.48765432098766</v>
       </c>
       <c r="AH4" t="n">
-        <v>1537970.295384751</v>
+        <v>1678802.454001167</v>
       </c>
     </row>
     <row r="5">
@@ -8679,28 +8679,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1146.712643336855</v>
+        <v>1260.586871829953</v>
       </c>
       <c r="AB5" t="n">
-        <v>1568.982828004889</v>
+        <v>1724.790571205547</v>
       </c>
       <c r="AC5" t="n">
-        <v>1419.241308981331</v>
+        <v>1560.178979848459</v>
       </c>
       <c r="AD5" t="n">
-        <v>1146712.643336855</v>
+        <v>1260586.871829953</v>
       </c>
       <c r="AE5" t="n">
-        <v>1568982.828004889</v>
+        <v>1724790.571205547</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.813658744250732e-07</v>
+        <v>1.787835495284533e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.80092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1419241.308981332</v>
+        <v>1560178.979848459</v>
       </c>
     </row>
     <row r="6">
@@ -8785,28 +8785,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.151899262079</v>
+        <v>1204.855535554584</v>
       </c>
       <c r="AB6" t="n">
-        <v>1492.962166794746</v>
+        <v>1648.536498220557</v>
       </c>
       <c r="AC6" t="n">
-        <v>1350.475952981416</v>
+        <v>1491.202488565893</v>
       </c>
       <c r="AD6" t="n">
-        <v>1091151.899262079</v>
+        <v>1204855.535554584</v>
       </c>
       <c r="AE6" t="n">
-        <v>1492962.166794746</v>
+        <v>1648536.498220557</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.967350580857697e-07</v>
+        <v>1.815834810115241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.44984567901234</v>
       </c>
       <c r="AH6" t="n">
-        <v>1350475.952981416</v>
+        <v>1491202.488565893</v>
       </c>
     </row>
     <row r="7">
@@ -8891,28 +8891,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1089.753459425436</v>
+        <v>1194.131146648113</v>
       </c>
       <c r="AB7" t="n">
-        <v>1491.048759715441</v>
+        <v>1633.862916192076</v>
       </c>
       <c r="AC7" t="n">
-        <v>1348.745158788276</v>
+        <v>1477.929332611708</v>
       </c>
       <c r="AD7" t="n">
-        <v>1089753.459425436</v>
+        <v>1194131.146648113</v>
       </c>
       <c r="AE7" t="n">
-        <v>1491048.759715441</v>
+        <v>1633862.916192075</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.977790026363077e-07</v>
+        <v>1.817736650367893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.4266975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>1348745.158788276</v>
+        <v>1477929.332611708</v>
       </c>
     </row>
   </sheetData>
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.67721989227</v>
+        <v>1199.941077263553</v>
       </c>
       <c r="AB2" t="n">
-        <v>1485.471468955167</v>
+        <v>1641.81231957617</v>
       </c>
       <c r="AC2" t="n">
-        <v>1343.700156830386</v>
+        <v>1485.120056093883</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085677.21989227</v>
+        <v>1199941.077263553</v>
       </c>
       <c r="AE2" t="n">
-        <v>1485471.468955167</v>
+        <v>1641812.31957617</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540150076701119e-07</v>
+        <v>1.869562030951784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.46296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>1343700.156830386</v>
+        <v>1485120.056093883</v>
       </c>
     </row>
     <row r="3">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.1591384019176</v>
+        <v>988.6203458061333</v>
       </c>
       <c r="AB3" t="n">
-        <v>1208.377295392874</v>
+        <v>1352.673971983427</v>
       </c>
       <c r="AC3" t="n">
-        <v>1093.051462288763</v>
+        <v>1223.576666587172</v>
       </c>
       <c r="AD3" t="n">
-        <v>883159.1384019176</v>
+        <v>988620.3458061332</v>
       </c>
       <c r="AE3" t="n">
-        <v>1208377.295392874</v>
+        <v>1352673.971983427</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049340952866294e-06</v>
+        <v>2.056370169472178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1093051.462288763</v>
+        <v>1223576.666587172</v>
       </c>
     </row>
     <row r="4">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>888.9028021614903</v>
+        <v>994.3640095657062</v>
       </c>
       <c r="AB4" t="n">
-        <v>1216.236029541283</v>
+        <v>1360.532706131836</v>
       </c>
       <c r="AC4" t="n">
-        <v>1100.160169879851</v>
+        <v>1230.685374178259</v>
       </c>
       <c r="AD4" t="n">
-        <v>888902.8021614903</v>
+        <v>994364.0095657061</v>
       </c>
       <c r="AE4" t="n">
-        <v>1216236.029541283</v>
+        <v>1360532.706131836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.050033545598895e-06</v>
+        <v>2.057727428074373e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.13271604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>1100160.169879851</v>
+        <v>1230685.374178259</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3357.228952787502</v>
+        <v>3560.572400878681</v>
       </c>
       <c r="AB2" t="n">
-        <v>4593.508763692406</v>
+        <v>4871.73224025057</v>
       </c>
       <c r="AC2" t="n">
-        <v>4155.11073431547</v>
+        <v>4406.780952760015</v>
       </c>
       <c r="AD2" t="n">
-        <v>3357228.952787502</v>
+        <v>3560572.400878681</v>
       </c>
       <c r="AE2" t="n">
-        <v>4593508.763692406</v>
+        <v>4871732.24025057</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.518754295587561e-07</v>
+        <v>9.494913053205556e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4155110.73431547</v>
+        <v>4406780.952760015</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2110.087949110946</v>
+        <v>2262.552864752046</v>
       </c>
       <c r="AB3" t="n">
-        <v>2887.115422483912</v>
+        <v>3095.724646341604</v>
       </c>
       <c r="AC3" t="n">
-        <v>2611.573178653992</v>
+        <v>2800.273030971474</v>
       </c>
       <c r="AD3" t="n">
-        <v>2110087.949110946</v>
+        <v>2262552.864752046</v>
       </c>
       <c r="AE3" t="n">
-        <v>2887115.422483912</v>
+        <v>3095724.646341604</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.427435659281016e-07</v>
+        <v>1.277876347014348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.96682098765432</v>
       </c>
       <c r="AH3" t="n">
-        <v>2611573.178653992</v>
+        <v>2800273.030971474</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1821.235800597005</v>
+        <v>1953.349392766622</v>
       </c>
       <c r="AB4" t="n">
-        <v>2491.89516962972</v>
+        <v>2672.658814876526</v>
       </c>
       <c r="AC4" t="n">
-        <v>2254.072192037095</v>
+        <v>2417.584008684915</v>
       </c>
       <c r="AD4" t="n">
-        <v>1821235.800597005</v>
+        <v>1953349.392766622</v>
       </c>
       <c r="AE4" t="n">
-        <v>2491895.16962972</v>
+        <v>2672658.814876526</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.161833791884083e-07</v>
+        <v>1.404228165595542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.45138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2254072.192037095</v>
+        <v>2417584.008684915</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1684.239631375036</v>
+        <v>1806.262857909208</v>
       </c>
       <c r="AB5" t="n">
-        <v>2304.450967055788</v>
+        <v>2471.408528884665</v>
       </c>
       <c r="AC5" t="n">
-        <v>2084.517401077229</v>
+        <v>2235.540767531567</v>
       </c>
       <c r="AD5" t="n">
-        <v>1684239.631375036</v>
+        <v>1806262.857909208</v>
       </c>
       <c r="AE5" t="n">
-        <v>2304450.967055788</v>
+        <v>2471408.528884665</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.548415800101826e-07</v>
+        <v>1.470738873617021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.29783950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>2084517.401077229</v>
+        <v>2235540.767531567</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1591.775676818087</v>
+        <v>1713.88415469828</v>
       </c>
       <c r="AB6" t="n">
-        <v>2177.937705209193</v>
+        <v>2345.011911690719</v>
       </c>
       <c r="AC6" t="n">
-        <v>1970.078387378795</v>
+        <v>2121.207266083845</v>
       </c>
       <c r="AD6" t="n">
-        <v>1591775.676818087</v>
+        <v>1713884.15469828</v>
       </c>
       <c r="AE6" t="n">
-        <v>2177937.705209193</v>
+        <v>2345011.911690719</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.794471479427047e-07</v>
+        <v>1.513072290839606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.61882716049383</v>
       </c>
       <c r="AH6" t="n">
-        <v>1970078.387378795</v>
+        <v>2121207.266083845</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1535.518906423755</v>
+        <v>1657.456792103356</v>
       </c>
       <c r="AB7" t="n">
-        <v>2100.964710082121</v>
+        <v>2267.805504788799</v>
       </c>
       <c r="AC7" t="n">
-        <v>1900.451586874373</v>
+        <v>2051.369330296772</v>
       </c>
       <c r="AD7" t="n">
-        <v>1535518.906423755</v>
+        <v>1657456.792103356</v>
       </c>
       <c r="AE7" t="n">
-        <v>2100964.710082121</v>
+        <v>2267805.504788799</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.955457580342235e-07</v>
+        <v>1.540769646965542e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.19444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1900451.586874373</v>
+        <v>2051369.330296772</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1477.73848669327</v>
+        <v>1599.761623718892</v>
       </c>
       <c r="AB8" t="n">
-        <v>2021.906990714659</v>
+        <v>2188.864430073986</v>
       </c>
       <c r="AC8" t="n">
-        <v>1828.939025285136</v>
+        <v>1979.962280958247</v>
       </c>
       <c r="AD8" t="n">
-        <v>1477738.48669327</v>
+        <v>1599761.623718892</v>
       </c>
       <c r="AE8" t="n">
-        <v>2021906.990714659</v>
+        <v>2188864.430073986</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.073908892052408e-07</v>
+        <v>1.561148972543154e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.89351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>1828939.025285135</v>
+        <v>1979962.280958247</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1437.496117888425</v>
+        <v>1559.519254914047</v>
       </c>
       <c r="AB9" t="n">
-        <v>1966.845606347857</v>
+        <v>2133.803045707186</v>
       </c>
       <c r="AC9" t="n">
-        <v>1779.132622163163</v>
+        <v>1930.155877836275</v>
       </c>
       <c r="AD9" t="n">
-        <v>1437496.117888425</v>
+        <v>1559519.254914047</v>
       </c>
       <c r="AE9" t="n">
-        <v>1966845.606347858</v>
+        <v>2133803.045707186</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.170823601633457e-07</v>
+        <v>1.577822966197563e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.65046296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>1779132.622163163</v>
+        <v>1930155.877836275</v>
       </c>
     </row>
     <row r="10">
@@ -10545,28 +10545,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1397.150194817398</v>
+        <v>1519.002739642428</v>
       </c>
       <c r="AB10" t="n">
-        <v>1911.642534465574</v>
+        <v>2078.366562050055</v>
       </c>
       <c r="AC10" t="n">
-        <v>1729.198053983327</v>
+        <v>1880.010174373787</v>
       </c>
       <c r="AD10" t="n">
-        <v>1397150.194817398</v>
+        <v>1519002.739642428</v>
       </c>
       <c r="AE10" t="n">
-        <v>1911642.534465574</v>
+        <v>2078366.562050055</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.234356577914368e-07</v>
+        <v>1.58875369537101e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.49228395061728</v>
       </c>
       <c r="AH10" t="n">
-        <v>1729198.053983327</v>
+        <v>1880010.174373787</v>
       </c>
     </row>
     <row r="11">
@@ -10651,28 +10651,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1361.07705118922</v>
+        <v>1472.924571233377</v>
       </c>
       <c r="AB11" t="n">
-        <v>1862.285667918722</v>
+        <v>2015.320379207471</v>
       </c>
       <c r="AC11" t="n">
-        <v>1684.551737506909</v>
+        <v>1822.981030735826</v>
       </c>
       <c r="AD11" t="n">
-        <v>1361077.05118922</v>
+        <v>1472924.571233377</v>
       </c>
       <c r="AE11" t="n">
-        <v>1862285.667918722</v>
+        <v>2015320.37920747</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.300043214408191e-07</v>
+        <v>1.600054957736777e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.33410493827161</v>
       </c>
       <c r="AH11" t="n">
-        <v>1684551.737506909</v>
+        <v>1822981.030735826</v>
       </c>
     </row>
     <row r="12">
@@ -10757,28 +10757,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1337.774836968738</v>
+        <v>1449.622357012895</v>
       </c>
       <c r="AB12" t="n">
-        <v>1830.402550401121</v>
+        <v>1983.43726168987</v>
       </c>
       <c r="AC12" t="n">
-        <v>1655.711499976952</v>
+        <v>1794.140793205868</v>
       </c>
       <c r="AD12" t="n">
-        <v>1337774.836968738</v>
+        <v>1449622.357012894</v>
       </c>
       <c r="AE12" t="n">
-        <v>1830402.550401121</v>
+        <v>1983437.26168987</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.330194457388963e-07</v>
+        <v>1.60524242242926e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.26466049382716</v>
       </c>
       <c r="AH12" t="n">
-        <v>1655711.499976952</v>
+        <v>1794140.793205868</v>
       </c>
     </row>
     <row r="13">
@@ -10863,28 +10863,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1335.69847462641</v>
+        <v>1447.545994670566</v>
       </c>
       <c r="AB13" t="n">
-        <v>1827.561579841705</v>
+        <v>1980.596291130454</v>
       </c>
       <c r="AC13" t="n">
-        <v>1653.141667660399</v>
+        <v>1791.570960889316</v>
       </c>
       <c r="AD13" t="n">
-        <v>1335698.47462641</v>
+        <v>1447545.994670566</v>
       </c>
       <c r="AE13" t="n">
-        <v>1827561.579841706</v>
+        <v>1980596.291130454</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.339885928347066e-07</v>
+        <v>1.6069098217947e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.24151234567901</v>
       </c>
       <c r="AH13" t="n">
-        <v>1653141.667660399</v>
+        <v>1791570.960889316</v>
       </c>
     </row>
     <row r="14">
@@ -10969,28 +10969,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1341.167393247108</v>
+        <v>1453.014913291264</v>
       </c>
       <c r="AB14" t="n">
-        <v>1835.044395570206</v>
+        <v>1988.079106858955</v>
       </c>
       <c r="AC14" t="n">
-        <v>1659.91033395797</v>
+        <v>1798.339627186887</v>
       </c>
       <c r="AD14" t="n">
-        <v>1341167.393247108</v>
+        <v>1453014.913291264</v>
       </c>
       <c r="AE14" t="n">
-        <v>1835044.395570206</v>
+        <v>1988079.106858955</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.339347513293837e-07</v>
+        <v>1.60681718849662e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.24151234567901</v>
       </c>
       <c r="AH14" t="n">
-        <v>1659910.33395797</v>
+        <v>1798339.627186887</v>
       </c>
     </row>
   </sheetData>
@@ -11266,28 +11266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.0334165373561</v>
+        <v>1018.804664760169</v>
       </c>
       <c r="AB2" t="n">
-        <v>1241.043135996597</v>
+        <v>1393.973488814509</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.599720912062</v>
+        <v>1260.934615496131</v>
       </c>
       <c r="AD2" t="n">
-        <v>907033.4165373561</v>
+        <v>1018804.664760169</v>
       </c>
       <c r="AE2" t="n">
-        <v>1241043.135996597</v>
+        <v>1393973.488814509</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.015176006607182e-06</v>
+        <v>2.035083115726662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.48688271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122599.720912062</v>
+        <v>1260934.615496131</v>
       </c>
     </row>
     <row r="3">
@@ -11372,28 +11372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>830.8548794116091</v>
+        <v>934.2645852066646</v>
       </c>
       <c r="AB3" t="n">
-        <v>1136.812300741283</v>
+        <v>1278.30202232432</v>
       </c>
       <c r="AC3" t="n">
-        <v>1028.316530284619</v>
+        <v>1156.302671421842</v>
       </c>
       <c r="AD3" t="n">
-        <v>830854.8794116091</v>
+        <v>934264.5852066646</v>
       </c>
       <c r="AE3" t="n">
-        <v>1136812.300741283</v>
+        <v>1278302.022324319</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05692999278817e-06</v>
+        <v>2.118785677389047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.52237654320988</v>
       </c>
       <c r="AH3" t="n">
-        <v>1028316.530284619</v>
+        <v>1156302.671421842</v>
       </c>
     </row>
   </sheetData>
@@ -11669,28 +11669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2473.563916661616</v>
+        <v>2640.235604114377</v>
       </c>
       <c r="AB2" t="n">
-        <v>3384.439276714896</v>
+        <v>3612.486832523677</v>
       </c>
       <c r="AC2" t="n">
-        <v>3061.433142235457</v>
+        <v>3267.716159384594</v>
       </c>
       <c r="AD2" t="n">
-        <v>2473563.916661615</v>
+        <v>2640235.604114377</v>
       </c>
       <c r="AE2" t="n">
-        <v>3384439.276714896</v>
+        <v>3612486.832523677</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.538027780695722e-07</v>
+        <v>1.157933302018778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.02854938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>3061433.142235457</v>
+        <v>3267716.159384594</v>
       </c>
     </row>
     <row r="3">
@@ -11775,28 +11775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1700.394308170512</v>
+        <v>1827.894329500586</v>
       </c>
       <c r="AB3" t="n">
-        <v>2326.554508541401</v>
+        <v>2501.005662629162</v>
       </c>
       <c r="AC3" t="n">
-        <v>2104.511411585969</v>
+        <v>2262.313192371329</v>
       </c>
       <c r="AD3" t="n">
-        <v>1700394.308170512</v>
+        <v>1827894.329500586</v>
       </c>
       <c r="AE3" t="n">
-        <v>2326554.508541401</v>
+        <v>2501005.662629162</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.254260073128351e-07</v>
+        <v>1.461890793798708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.16512345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>2104511.411585969</v>
+        <v>2262313.192371328</v>
       </c>
     </row>
     <row r="4">
@@ -11881,28 +11881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1496.026800734414</v>
+        <v>1613.712570320173</v>
       </c>
       <c r="AB4" t="n">
-        <v>2046.929868809224</v>
+        <v>2207.952730686185</v>
       </c>
       <c r="AC4" t="n">
-        <v>1851.573755014185</v>
+        <v>1997.228820950615</v>
       </c>
       <c r="AD4" t="n">
-        <v>1496026.800734414</v>
+        <v>1613712.570320172</v>
       </c>
       <c r="AE4" t="n">
-        <v>2046929.868809224</v>
+        <v>2207952.730686185</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.883433294489822e-07</v>
+        <v>1.57332204649298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.30941358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>1851573.755014185</v>
+        <v>1997228.820950615</v>
       </c>
     </row>
     <row r="5">
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1387.024961949038</v>
+        <v>1504.625390680226</v>
       </c>
       <c r="AB5" t="n">
-        <v>1897.788744161335</v>
+        <v>2058.694838916099</v>
       </c>
       <c r="AC5" t="n">
-        <v>1716.666449981808</v>
+        <v>1862.2158928863</v>
       </c>
       <c r="AD5" t="n">
-        <v>1387024.961949038</v>
+        <v>1504625.390680226</v>
       </c>
       <c r="AE5" t="n">
-        <v>1897788.744161336</v>
+        <v>2058694.838916099</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.220970173921288e-07</v>
+        <v>1.633102335972204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.41820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>1716666.449981808</v>
+        <v>1862215.8928863</v>
       </c>
     </row>
     <row r="6">
@@ -12093,28 +12093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1309.429435524404</v>
+        <v>1427.115115601612</v>
       </c>
       <c r="AB6" t="n">
-        <v>1791.619121634128</v>
+        <v>1952.64186104154</v>
       </c>
       <c r="AC6" t="n">
-        <v>1620.629507218596</v>
+        <v>1766.284462373799</v>
       </c>
       <c r="AD6" t="n">
-        <v>1309429.435524404</v>
+        <v>1427115.115601612</v>
       </c>
       <c r="AE6" t="n">
-        <v>1791619.121634128</v>
+        <v>1952641.86104154</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.419685915543461e-07</v>
+        <v>1.668296370408562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.92438271604938</v>
       </c>
       <c r="AH6" t="n">
-        <v>1620629.507218596</v>
+        <v>1766284.462373799</v>
       </c>
     </row>
     <row r="7">
@@ -12199,28 +12199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1253.983664437975</v>
+        <v>1371.669344515183</v>
       </c>
       <c r="AB7" t="n">
-        <v>1715.755771538892</v>
+        <v>1876.778510946305</v>
       </c>
       <c r="AC7" t="n">
-        <v>1552.00644878157</v>
+        <v>1697.661403936773</v>
       </c>
       <c r="AD7" t="n">
-        <v>1253983.664437975</v>
+        <v>1371669.344515183</v>
       </c>
       <c r="AE7" t="n">
-        <v>1715755.771538892</v>
+        <v>1876778.510946305</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.566903493139607e-07</v>
+        <v>1.694369697329019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.5733024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>1552006.448781569</v>
+        <v>1697661.403936773</v>
       </c>
     </row>
     <row r="8">
@@ -12305,28 +12305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1208.072355403302</v>
+        <v>1315.943873244745</v>
       </c>
       <c r="AB8" t="n">
-        <v>1652.937893053647</v>
+        <v>1800.532462719808</v>
       </c>
       <c r="AC8" t="n">
-        <v>1495.18382045351</v>
+        <v>1628.692171541012</v>
       </c>
       <c r="AD8" t="n">
-        <v>1208072.355403302</v>
+        <v>1315943.873244745</v>
       </c>
       <c r="AE8" t="n">
-        <v>1652937.893053648</v>
+        <v>1800532.462719808</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.653106941617957e-07</v>
+        <v>1.709636968605636e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.37268518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>1495183.82045351</v>
+        <v>1628692.171541012</v>
       </c>
     </row>
     <row r="9">
@@ -12411,28 +12411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1196.507655302933</v>
+        <v>1304.379173144377</v>
       </c>
       <c r="AB9" t="n">
-        <v>1637.114560177762</v>
+        <v>1784.709129843923</v>
       </c>
       <c r="AC9" t="n">
-        <v>1480.870644259112</v>
+        <v>1614.378995346614</v>
       </c>
       <c r="AD9" t="n">
-        <v>1196507.655302933</v>
+        <v>1304379.173144377</v>
       </c>
       <c r="AE9" t="n">
-        <v>1637114.560177762</v>
+        <v>1784709.129843923</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.679415786283427e-07</v>
+        <v>1.71429646048876e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.31095679012346</v>
       </c>
       <c r="AH9" t="n">
-        <v>1480870.644259112</v>
+        <v>1614378.995346614</v>
       </c>
     </row>
   </sheetData>
@@ -12708,28 +12708,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2890.043703734834</v>
+        <v>3069.912562023104</v>
       </c>
       <c r="AB2" t="n">
-        <v>3954.285295179955</v>
+        <v>4200.389802343966</v>
       </c>
       <c r="AC2" t="n">
-        <v>3576.8938564821</v>
+        <v>3799.510494892213</v>
       </c>
       <c r="AD2" t="n">
-        <v>2890043.703734834</v>
+        <v>3069912.562023104</v>
       </c>
       <c r="AE2" t="n">
-        <v>3954285.295179956</v>
+        <v>4200389.802343966</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.005591867376757e-07</v>
+        <v>1.04732278132015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.23148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>3576893.8564821</v>
+        <v>3799510.494892213</v>
       </c>
     </row>
     <row r="3">
@@ -12814,28 +12814,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1906.830853478444</v>
+        <v>2036.859435006728</v>
       </c>
       <c r="AB3" t="n">
-        <v>2609.010097169328</v>
+        <v>2786.920938872485</v>
       </c>
       <c r="AC3" t="n">
-        <v>2360.009835264156</v>
+        <v>2520.941115934598</v>
       </c>
       <c r="AD3" t="n">
-        <v>1906830.853478444</v>
+        <v>2036859.435006728</v>
       </c>
       <c r="AE3" t="n">
-        <v>2609010.097169328</v>
+        <v>2786920.938872485</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.824271559817061e-07</v>
+        <v>1.364484639115367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.04475308641975</v>
       </c>
       <c r="AH3" t="n">
-        <v>2360009.835264156</v>
+        <v>2520941.115934598</v>
       </c>
     </row>
     <row r="4">
@@ -12920,28 +12920,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1653.137046631641</v>
+        <v>1783.080197796803</v>
       </c>
       <c r="AB4" t="n">
-        <v>2261.895038460678</v>
+        <v>2439.68899057209</v>
       </c>
       <c r="AC4" t="n">
-        <v>2046.022950579616</v>
+        <v>2206.848497436893</v>
       </c>
       <c r="AD4" t="n">
-        <v>1653137.046631641</v>
+        <v>1783080.197796803</v>
       </c>
       <c r="AE4" t="n">
-        <v>2261895.038460678</v>
+        <v>2439688.990572089</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.508744495934519e-07</v>
+        <v>1.483850742411033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.86882716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>2046022.950579616</v>
+        <v>2206848.497436893</v>
       </c>
     </row>
     <row r="5">
@@ -13026,28 +13026,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1533.351211299326</v>
+        <v>1663.209021609917</v>
       </c>
       <c r="AB5" t="n">
-        <v>2097.998773980918</v>
+        <v>2275.675958970131</v>
       </c>
       <c r="AC5" t="n">
-        <v>1897.768715551951</v>
+        <v>2058.488639377289</v>
       </c>
       <c r="AD5" t="n">
-        <v>1533351.211299326</v>
+        <v>1663209.021609917</v>
       </c>
       <c r="AE5" t="n">
-        <v>2097998.773980918</v>
+        <v>2275675.958970131</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.867434640342228e-07</v>
+        <v>1.546403171541936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.86188271604938</v>
       </c>
       <c r="AH5" t="n">
-        <v>1897768.715551951</v>
+        <v>2058488.639377289</v>
       </c>
     </row>
     <row r="6">
@@ -13132,28 +13132,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1457.244061907548</v>
+        <v>1577.099770032863</v>
       </c>
       <c r="AB6" t="n">
-        <v>1993.865614572623</v>
+        <v>2157.857482090337</v>
       </c>
       <c r="AC6" t="n">
-        <v>1803.573878725776</v>
+        <v>1951.914592571633</v>
       </c>
       <c r="AD6" t="n">
-        <v>1457244.061907548</v>
+        <v>1577099.770032863</v>
       </c>
       <c r="AE6" t="n">
-        <v>1993865.614572623</v>
+        <v>2157857.482090337</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.103270668010903e-07</v>
+        <v>1.587530915465923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.2445987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>1803573.878725776</v>
+        <v>1951914.592571632</v>
       </c>
     </row>
     <row r="7">
@@ -13238,28 +13238,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1392.801179696212</v>
+        <v>1512.742139167548</v>
       </c>
       <c r="AB7" t="n">
-        <v>1905.692020111761</v>
+        <v>2069.800532282125</v>
       </c>
       <c r="AC7" t="n">
-        <v>1723.815448367843</v>
+        <v>1872.261674464411</v>
       </c>
       <c r="AD7" t="n">
-        <v>1392801.179696212</v>
+        <v>1512742.139167548</v>
       </c>
       <c r="AE7" t="n">
-        <v>1905692.020111761</v>
+        <v>2069800.532282125</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.245320740490409e-07</v>
+        <v>1.612303207736418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.8858024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>1723815.448367843</v>
+        <v>1872261.674464411</v>
       </c>
     </row>
     <row r="8">
@@ -13344,28 +13344,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1344.730760258732</v>
+        <v>1464.671719730069</v>
       </c>
       <c r="AB8" t="n">
-        <v>1839.919951520169</v>
+        <v>2004.028463690533</v>
       </c>
       <c r="AC8" t="n">
-        <v>1664.320573690954</v>
+        <v>1812.766799787522</v>
       </c>
       <c r="AD8" t="n">
-        <v>1344730.760258732</v>
+        <v>1464671.719730069</v>
       </c>
       <c r="AE8" t="n">
-        <v>1839919.951520169</v>
+        <v>2004028.463690533</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.356108827906857e-07</v>
+        <v>1.631623682789082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.61574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1664320.573690954</v>
+        <v>1812766.799787522</v>
       </c>
     </row>
     <row r="9">
@@ -13450,28 +13450,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1300.363526091345</v>
+        <v>1410.302383377406</v>
       </c>
       <c r="AB9" t="n">
-        <v>1779.214744388119</v>
+        <v>1929.637939086985</v>
       </c>
       <c r="AC9" t="n">
-        <v>1609.408986327294</v>
+        <v>1745.476002444379</v>
       </c>
       <c r="AD9" t="n">
-        <v>1300363.526091345</v>
+        <v>1410302.383377406</v>
       </c>
       <c r="AE9" t="n">
-        <v>1779214.74438812</v>
+        <v>1929637.939086985</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.444410224313035e-07</v>
+        <v>1.647022675281551e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.40354938271605</v>
       </c>
       <c r="AH9" t="n">
-        <v>1609408.986327294</v>
+        <v>1745476.002444379</v>
       </c>
     </row>
     <row r="10">
@@ -13556,28 +13556,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1270.606775221394</v>
+        <v>1380.545632507455</v>
       </c>
       <c r="AB10" t="n">
-        <v>1738.500245072655</v>
+        <v>1888.923439771521</v>
       </c>
       <c r="AC10" t="n">
-        <v>1572.580221683339</v>
+        <v>1708.647237800425</v>
       </c>
       <c r="AD10" t="n">
-        <v>1270606.775221394</v>
+        <v>1380545.632507455</v>
       </c>
       <c r="AE10" t="n">
-        <v>1738500.245072655</v>
+        <v>1888923.439771521</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.494319709238268e-07</v>
+        <v>1.655726453646861e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.28780864197531</v>
       </c>
       <c r="AH10" t="n">
-        <v>1572580.221683339</v>
+        <v>1708647.237800425</v>
       </c>
     </row>
     <row r="11">
@@ -13662,28 +13662,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1266.603849339271</v>
+        <v>1376.542706625333</v>
       </c>
       <c r="AB11" t="n">
-        <v>1733.023265284109</v>
+        <v>1883.446459982974</v>
       </c>
       <c r="AC11" t="n">
-        <v>1567.625957158822</v>
+        <v>1703.692973275907</v>
       </c>
       <c r="AD11" t="n">
-        <v>1266603.849339271</v>
+        <v>1376542.706625333</v>
       </c>
       <c r="AE11" t="n">
-        <v>1733023.265284109</v>
+        <v>1883446.459982974</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.504740370925953e-07</v>
+        <v>1.657543726052804e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.2608024691358</v>
       </c>
       <c r="AH11" t="n">
-        <v>1567625.957158822</v>
+        <v>1703692.973275907</v>
       </c>
     </row>
     <row r="12">
@@ -13768,28 +13768,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1271.761480573178</v>
+        <v>1381.70033785924</v>
       </c>
       <c r="AB12" t="n">
-        <v>1740.080163876972</v>
+        <v>1890.503358575838</v>
       </c>
       <c r="AC12" t="n">
-        <v>1574.009355254402</v>
+        <v>1710.076371371488</v>
       </c>
       <c r="AD12" t="n">
-        <v>1271761.480573179</v>
+        <v>1381700.33785924</v>
       </c>
       <c r="AE12" t="n">
-        <v>1740080.163876972</v>
+        <v>1890503.358575838</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.504740370925953e-07</v>
+        <v>1.657543726052804e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.2608024691358</v>
       </c>
       <c r="AH12" t="n">
-        <v>1574009.355254402</v>
+        <v>1710076.371371488</v>
       </c>
     </row>
   </sheetData>
@@ -14065,28 +14065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3896.362773188598</v>
+        <v>4113.19277193427</v>
       </c>
       <c r="AB2" t="n">
-        <v>5331.175441670731</v>
+        <v>5627.851811818997</v>
       </c>
       <c r="AC2" t="n">
-        <v>4822.375539869199</v>
+        <v>5090.737533638407</v>
       </c>
       <c r="AD2" t="n">
-        <v>3896362.773188598</v>
+        <v>4113192.77193427</v>
       </c>
       <c r="AE2" t="n">
-        <v>5331175.441670731</v>
+        <v>5627851.811818996</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.071482225795059e-07</v>
+        <v>8.62118366437471e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.27006172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>4822375.5398692</v>
+        <v>5090737.533638407</v>
       </c>
     </row>
     <row r="3">
@@ -14171,28 +14171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2334.243072156343</v>
+        <v>2489.219111159513</v>
       </c>
       <c r="AB3" t="n">
-        <v>3193.814350860904</v>
+        <v>3405.859404485357</v>
       </c>
       <c r="AC3" t="n">
-        <v>2889.001191761212</v>
+        <v>3080.808963074842</v>
       </c>
       <c r="AD3" t="n">
-        <v>2334243.072156343</v>
+        <v>2489219.111159512</v>
       </c>
       <c r="AE3" t="n">
-        <v>3193814.350860904</v>
+        <v>3405859.404485357</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.054548240182147e-07</v>
+        <v>1.199226445839847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.95061728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>2889001.191761212</v>
+        <v>3080808.963074842</v>
       </c>
     </row>
     <row r="4">
@@ -14277,28 +14277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1996.010254496048</v>
+        <v>2130.311532360069</v>
       </c>
       <c r="AB4" t="n">
-        <v>2731.029287959116</v>
+        <v>2914.786221286887</v>
       </c>
       <c r="AC4" t="n">
-        <v>2470.383685739977</v>
+        <v>2636.603115255421</v>
       </c>
       <c r="AD4" t="n">
-        <v>1996010.254496048</v>
+        <v>2130311.532360069</v>
       </c>
       <c r="AE4" t="n">
-        <v>2731029.287959116</v>
+        <v>2914786.221286887</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.82744636645154e-07</v>
+        <v>1.330614004816748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.09182098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>2470383.685739977</v>
+        <v>2636603.115255421</v>
       </c>
     </row>
     <row r="5">
@@ -14383,28 +14383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1824.963249693258</v>
+        <v>1959.264438048728</v>
       </c>
       <c r="AB5" t="n">
-        <v>2496.995229926661</v>
+        <v>2680.752040784884</v>
       </c>
       <c r="AC5" t="n">
-        <v>2258.685509737276</v>
+        <v>2424.904828471494</v>
       </c>
       <c r="AD5" t="n">
-        <v>1824963.249693258</v>
+        <v>1959264.438048728</v>
       </c>
       <c r="AE5" t="n">
-        <v>2496995.229926661</v>
+        <v>2680752.040784884</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.252540335899706e-07</v>
+        <v>1.402877162254043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.74922839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>2258685.509737276</v>
+        <v>2424904.828471493</v>
       </c>
     </row>
     <row r="6">
@@ -14489,28 +14489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1739.435264323482</v>
+        <v>1863.399116863654</v>
       </c>
       <c r="AB6" t="n">
-        <v>2379.972067115321</v>
+        <v>2549.584879059983</v>
       </c>
       <c r="AC6" t="n">
-        <v>2152.83087334161</v>
+        <v>2306.256076567349</v>
       </c>
       <c r="AD6" t="n">
-        <v>1739435.264323483</v>
+        <v>1863399.116863654</v>
       </c>
       <c r="AE6" t="n">
-        <v>2379972.067115321</v>
+        <v>2549584.879059982</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.503467535798126e-07</v>
+        <v>1.44553312318216e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.02006172839506</v>
       </c>
       <c r="AH6" t="n">
-        <v>2152830.87334161</v>
+        <v>2306256.076567349</v>
       </c>
     </row>
     <row r="7">
@@ -14595,28 +14595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1666.52933374696</v>
+        <v>1790.578437633153</v>
       </c>
       <c r="AB7" t="n">
-        <v>2280.218956517868</v>
+        <v>2449.948413115178</v>
       </c>
       <c r="AC7" t="n">
-        <v>2062.598059615207</v>
+        <v>2216.128775091659</v>
       </c>
       <c r="AD7" t="n">
-        <v>1666529.33374696</v>
+        <v>1790578.437633153</v>
       </c>
       <c r="AE7" t="n">
-        <v>2280218.956517868</v>
+        <v>2449948.413115179</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.67816368762614e-07</v>
+        <v>1.47523031117009e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.53395061728395</v>
       </c>
       <c r="AH7" t="n">
-        <v>2062598.059615207</v>
+        <v>2216128.775091659</v>
       </c>
     </row>
     <row r="8">
@@ -14701,28 +14701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1614.937960290075</v>
+        <v>1738.816471975675</v>
       </c>
       <c r="AB8" t="n">
-        <v>2209.629363303396</v>
+        <v>2379.12540812586</v>
       </c>
       <c r="AC8" t="n">
-        <v>1998.745438104008</v>
+        <v>2152.065018297809</v>
       </c>
       <c r="AD8" t="n">
-        <v>1614937.960290075</v>
+        <v>1738816.471975675</v>
       </c>
       <c r="AE8" t="n">
-        <v>2209629.363303396</v>
+        <v>2379125.40812586</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.817391226810283e-07</v>
+        <v>1.498898070081682e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.16358024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>1998745.438104008</v>
+        <v>2152065.018297809</v>
       </c>
     </row>
     <row r="9">
@@ -14807,28 +14807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1564.478446490965</v>
+        <v>1688.442209522586</v>
       </c>
       <c r="AB9" t="n">
-        <v>2140.588430406817</v>
+        <v>2310.20111988193</v>
       </c>
       <c r="AC9" t="n">
-        <v>1936.293674943521</v>
+        <v>2089.718767388033</v>
       </c>
       <c r="AD9" t="n">
-        <v>1564478.446490965</v>
+        <v>1688442.209522586</v>
       </c>
       <c r="AE9" t="n">
-        <v>2140588.430406817</v>
+        <v>2310201.119881929</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.910562507785223e-07</v>
+        <v>1.514736570341911e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.92052469135803</v>
       </c>
       <c r="AH9" t="n">
-        <v>1936293.674943521</v>
+        <v>2089718.767388034</v>
       </c>
     </row>
     <row r="10">
@@ -14913,28 +14913,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1526.172604337408</v>
+        <v>1650.136367369028</v>
       </c>
       <c r="AB10" t="n">
-        <v>2088.176687237833</v>
+        <v>2257.789376712946</v>
       </c>
       <c r="AC10" t="n">
-        <v>1888.884034982241</v>
+        <v>2042.309127426754</v>
       </c>
       <c r="AD10" t="n">
-        <v>1526172.604337408</v>
+        <v>1650136.367369028</v>
       </c>
       <c r="AE10" t="n">
-        <v>2088176.687237833</v>
+        <v>2257789.376712946</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.992616760916564e-07</v>
+        <v>1.528685249548363e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.71219135802469</v>
       </c>
       <c r="AH10" t="n">
-        <v>1888884.034982241</v>
+        <v>2042309.127426754</v>
       </c>
     </row>
     <row r="11">
@@ -15019,28 +15019,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1487.762332876155</v>
+        <v>1611.726095907776</v>
       </c>
       <c r="AB11" t="n">
-        <v>2035.622059282964</v>
+        <v>2205.234748758078</v>
       </c>
       <c r="AC11" t="n">
-        <v>1841.345146958502</v>
+        <v>1994.770239403015</v>
       </c>
       <c r="AD11" t="n">
-        <v>1487762.332876155</v>
+        <v>1611726.095907775</v>
       </c>
       <c r="AE11" t="n">
-        <v>2035622.059282964</v>
+        <v>2205234.748758078</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.0524369583607e-07</v>
+        <v>1.53885428664726e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.56172839506173</v>
       </c>
       <c r="AH11" t="n">
-        <v>1841345.146958502</v>
+        <v>1994770.239403015</v>
       </c>
     </row>
     <row r="12">
@@ -15125,28 +15125,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1460.950728228021</v>
+        <v>1574.577155444344</v>
       </c>
       <c r="AB12" t="n">
-        <v>1998.937238958872</v>
+        <v>2154.405929520425</v>
       </c>
       <c r="AC12" t="n">
-        <v>1808.161474398672</v>
+        <v>1948.792451334708</v>
       </c>
       <c r="AD12" t="n">
-        <v>1460950.728228021</v>
+        <v>1574577.155444344</v>
       </c>
       <c r="AE12" t="n">
-        <v>1998937.238958872</v>
+        <v>2154405.929520425</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.105375186187373e-07</v>
+        <v>1.54785343452239e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.43055555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1808161.474398672</v>
+        <v>1948792.451334708</v>
       </c>
     </row>
     <row r="13">
@@ -15231,28 +15231,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1427.56363109239</v>
+        <v>1541.190058308713</v>
       </c>
       <c r="AB13" t="n">
-        <v>1953.255539723131</v>
+        <v>2108.724230284683</v>
       </c>
       <c r="AC13" t="n">
-        <v>1766.839572423323</v>
+        <v>1907.470549359358</v>
       </c>
       <c r="AD13" t="n">
-        <v>1427563.63109239</v>
+        <v>1541190.058308713</v>
       </c>
       <c r="AE13" t="n">
-        <v>1953255.539723131</v>
+        <v>2108724.230284683</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.156725267179244e-07</v>
+        <v>1.556582607961267e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.30324074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>1766839.572423323</v>
+        <v>1907470.549359358</v>
       </c>
     </row>
     <row r="14">
@@ -15337,28 +15337,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1403.951003744855</v>
+        <v>1517.577430961177</v>
       </c>
       <c r="AB14" t="n">
-        <v>1920.947701270634</v>
+        <v>2076.416391832186</v>
       </c>
       <c r="AC14" t="n">
-        <v>1737.615148728396</v>
+        <v>1878.246125664432</v>
       </c>
       <c r="AD14" t="n">
-        <v>1403951.003744855</v>
+        <v>1517577.430961177</v>
       </c>
       <c r="AE14" t="n">
-        <v>1920947.701270634</v>
+        <v>2076416.391832186</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.185841292483913e-07</v>
+        <v>1.561532139292588e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>1737615.148728396</v>
+        <v>1878246.125664432</v>
       </c>
     </row>
     <row r="15">
@@ -15443,28 +15443,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1399.066206166812</v>
+        <v>1512.692633383134</v>
       </c>
       <c r="AB15" t="n">
-        <v>1914.264105722297</v>
+        <v>2069.732796283849</v>
       </c>
       <c r="AC15" t="n">
-        <v>1731.569426158707</v>
+        <v>1872.200403094742</v>
       </c>
       <c r="AD15" t="n">
-        <v>1399066.206166812</v>
+        <v>1512692.633383134</v>
       </c>
       <c r="AE15" t="n">
-        <v>1914264.105722297</v>
+        <v>2069732.796283849</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.192193879823113e-07</v>
+        <v>1.562612037037604e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.21836419753087</v>
       </c>
       <c r="AH15" t="n">
-        <v>1731569.426158707</v>
+        <v>1872200.403094742</v>
       </c>
     </row>
     <row r="16">
@@ -15549,28 +15549,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1404.954092549361</v>
+        <v>1518.580519765684</v>
       </c>
       <c r="AB16" t="n">
-        <v>1922.320171626116</v>
+        <v>2077.788862187668</v>
       </c>
       <c r="AC16" t="n">
-        <v>1738.856632439425</v>
+        <v>1879.48760937546</v>
       </c>
       <c r="AD16" t="n">
-        <v>1404954.092549361</v>
+        <v>1518580.519765684</v>
       </c>
       <c r="AE16" t="n">
-        <v>1922320.171626116</v>
+        <v>2077788.862187668</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.191664497544845e-07</v>
+        <v>1.562522045558853e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.21836419753087</v>
       </c>
       <c r="AH16" t="n">
-        <v>1738856.632439425</v>
+        <v>1879487.60937546</v>
       </c>
     </row>
   </sheetData>
@@ -15846,28 +15846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2083.129213407227</v>
+        <v>2236.774214331122</v>
       </c>
       <c r="AB2" t="n">
-        <v>2850.229290958604</v>
+        <v>3060.453159561901</v>
       </c>
       <c r="AC2" t="n">
-        <v>2578.207407751448</v>
+        <v>2768.367805386185</v>
       </c>
       <c r="AD2" t="n">
-        <v>2083129.213407227</v>
+        <v>2236774.214331122</v>
       </c>
       <c r="AE2" t="n">
-        <v>2850229.290958604</v>
+        <v>3060453.159561901</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.13482924051679e-07</v>
+        <v>1.286578550623276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.96836419753086</v>
       </c>
       <c r="AH2" t="n">
-        <v>2578207.407751448</v>
+        <v>2768367.805386185</v>
       </c>
     </row>
     <row r="3">
@@ -15952,28 +15952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1499.646388181769</v>
+        <v>1624.381698676179</v>
       </c>
       <c r="AB3" t="n">
-        <v>2051.882348039623</v>
+        <v>2222.550702791596</v>
       </c>
       <c r="AC3" t="n">
-        <v>1856.053576577684</v>
+        <v>2010.433583086668</v>
       </c>
       <c r="AD3" t="n">
-        <v>1499646.388181769</v>
+        <v>1624381.698676178</v>
       </c>
       <c r="AE3" t="n">
-        <v>2051882.348039623</v>
+        <v>2222550.702791596</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.72524670727832e-07</v>
+        <v>1.573368455510164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.32407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1856053.576577684</v>
+        <v>2010433.583086668</v>
       </c>
     </row>
     <row r="4">
@@ -16058,28 +16058,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1324.893375275191</v>
+        <v>1440.191131609039</v>
       </c>
       <c r="AB4" t="n">
-        <v>1812.777566222027</v>
+        <v>1970.533043016015</v>
       </c>
       <c r="AC4" t="n">
-        <v>1639.76861955109</v>
+        <v>1782.468135051062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1324893.375275191</v>
+        <v>1440191.131609039</v>
       </c>
       <c r="AE4" t="n">
-        <v>1812777.566222027</v>
+        <v>1970533.043016015</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.305402592704833e-07</v>
+        <v>1.677984290458099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.74614197530864</v>
       </c>
       <c r="AH4" t="n">
-        <v>1639768.61955109</v>
+        <v>1782468.135051062</v>
       </c>
     </row>
     <row r="5">
@@ -16164,28 +16164,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1238.264922957988</v>
+        <v>1343.954622439233</v>
       </c>
       <c r="AB5" t="n">
-        <v>1694.248695984042</v>
+        <v>1838.858005514745</v>
       </c>
       <c r="AC5" t="n">
-        <v>1532.551978332304</v>
+        <v>1663.359978321837</v>
       </c>
       <c r="AD5" t="n">
-        <v>1238264.922957988</v>
+        <v>1343954.622439233</v>
       </c>
       <c r="AE5" t="n">
-        <v>1694248.695984042</v>
+        <v>1838858.005514745</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.600921286564734e-07</v>
+        <v>1.73127330411371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.01311728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>1532551.978332304</v>
+        <v>1663359.978321837</v>
       </c>
     </row>
     <row r="6">
@@ -16270,28 +16270,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1158.118492799221</v>
+        <v>1273.330908278497</v>
       </c>
       <c r="AB6" t="n">
-        <v>1584.588814429863</v>
+        <v>1742.227524101653</v>
       </c>
       <c r="AC6" t="n">
-        <v>1433.357881965045</v>
+        <v>1575.951774433078</v>
       </c>
       <c r="AD6" t="n">
-        <v>1158118.492799221</v>
+        <v>1273330.908278497</v>
       </c>
       <c r="AE6" t="n">
-        <v>1584588.814429863</v>
+        <v>1742227.524101653</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.793352063961879e-07</v>
+        <v>1.765973126959225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.56172839506173</v>
       </c>
       <c r="AH6" t="n">
-        <v>1433357.881965045</v>
+        <v>1575951.774433078</v>
       </c>
     </row>
     <row r="7">
@@ -16376,28 +16376,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126.394504404542</v>
+        <v>1231.998863031215</v>
       </c>
       <c r="AB7" t="n">
-        <v>1541.182653944671</v>
+        <v>1685.675196353177</v>
       </c>
       <c r="AC7" t="n">
-        <v>1394.094344515631</v>
+        <v>1524.796721473226</v>
       </c>
       <c r="AD7" t="n">
-        <v>1126394.504404542</v>
+        <v>1231998.863031215</v>
       </c>
       <c r="AE7" t="n">
-        <v>1541182.653944671</v>
+        <v>1685675.196353177</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.872386133249994e-07</v>
+        <v>1.780224839913633e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.3804012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>1394094.344515631</v>
+        <v>1524796.721473226</v>
       </c>
     </row>
     <row r="8">
@@ -16482,28 +16482,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1130.613195395945</v>
+        <v>1236.217554022618</v>
       </c>
       <c r="AB8" t="n">
-        <v>1546.95485307462</v>
+        <v>1691.447395483126</v>
       </c>
       <c r="AC8" t="n">
-        <v>1399.315653061951</v>
+        <v>1530.018030019546</v>
       </c>
       <c r="AD8" t="n">
-        <v>1130613.195395945</v>
+        <v>1236217.554022618</v>
       </c>
       <c r="AE8" t="n">
-        <v>1546954.85307462</v>
+        <v>1691447.395483126</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.871813422602978e-07</v>
+        <v>1.780121566631355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.3804012345679</v>
       </c>
       <c r="AH8" t="n">
-        <v>1399315.653061951</v>
+        <v>1530018.030019546</v>
       </c>
     </row>
   </sheetData>
@@ -16779,28 +16779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1577.590211323086</v>
+        <v>1707.029046969733</v>
       </c>
       <c r="AB2" t="n">
-        <v>2158.528525500363</v>
+        <v>2335.632450870512</v>
       </c>
       <c r="AC2" t="n">
-        <v>1952.521592540421</v>
+        <v>2112.722967840163</v>
       </c>
       <c r="AD2" t="n">
-        <v>1577590.211323086</v>
+        <v>1707029.046969733</v>
       </c>
       <c r="AE2" t="n">
-        <v>2158528.525500363</v>
+        <v>2335632.450870512</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.177845273167443e-07</v>
+        <v>1.525724529087729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.14429012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>1952521.592540421</v>
+        <v>2112722.967840163</v>
       </c>
     </row>
     <row r="3">
@@ -16885,28 +16885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1196.36743274424</v>
+        <v>1307.302827391935</v>
       </c>
       <c r="AB3" t="n">
-        <v>1636.922701486777</v>
+        <v>1788.709402567954</v>
       </c>
       <c r="AC3" t="n">
-        <v>1480.697096292319</v>
+        <v>1617.997487656282</v>
       </c>
       <c r="AD3" t="n">
-        <v>1196367.43274424</v>
+        <v>1307302.827391935</v>
       </c>
       <c r="AE3" t="n">
-        <v>1636922.701486777</v>
+        <v>1788709.402567954</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.551160112591973e-07</v>
+        <v>1.781941181112821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.09722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1480697.096292319</v>
+        <v>1617997.487656282</v>
       </c>
     </row>
     <row r="4">
@@ -16991,28 +16991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1055.915742339172</v>
+        <v>1166.851047478315</v>
       </c>
       <c r="AB4" t="n">
-        <v>1444.750502383294</v>
+        <v>1596.537080994923</v>
       </c>
       <c r="AC4" t="n">
-        <v>1306.865542155897</v>
+        <v>1444.165822738633</v>
       </c>
       <c r="AD4" t="n">
-        <v>1055915.742339172</v>
+        <v>1166851.047478315</v>
       </c>
       <c r="AE4" t="n">
-        <v>1444750.502383294</v>
+        <v>1596537.080994923</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.003856159991163e-06</v>
+        <v>1.872874719212082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.92824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1306865.542155897</v>
+        <v>1444165.822738633</v>
       </c>
     </row>
     <row r="5">
@@ -17097,28 +17097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1009.639659575667</v>
+        <v>1120.57496471481</v>
       </c>
       <c r="AB5" t="n">
-        <v>1381.433524389581</v>
+        <v>1533.22010300121</v>
       </c>
       <c r="AC5" t="n">
-        <v>1249.591447675967</v>
+        <v>1386.891728258704</v>
       </c>
       <c r="AD5" t="n">
-        <v>1009639.659575667</v>
+        <v>1120574.96471481</v>
       </c>
       <c r="AE5" t="n">
-        <v>1381433.524389581</v>
+        <v>1533220.10300121</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.018830183653002e-06</v>
+        <v>1.900811461027155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.58873456790123</v>
       </c>
       <c r="AH5" t="n">
-        <v>1249591.447675967</v>
+        <v>1386891.728258704</v>
       </c>
     </row>
     <row r="6">
@@ -17203,28 +17203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1016.757600275435</v>
+        <v>1127.692905414578</v>
       </c>
       <c r="AB6" t="n">
-        <v>1391.172604876385</v>
+        <v>1542.959183488013</v>
       </c>
       <c r="AC6" t="n">
-        <v>1258.401043989996</v>
+        <v>1395.701324572732</v>
       </c>
       <c r="AD6" t="n">
-        <v>1016757.600275435</v>
+        <v>1127692.905414579</v>
       </c>
       <c r="AE6" t="n">
-        <v>1391172.604876385</v>
+        <v>1542959.183488013</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.017994979145968e-06</v>
+        <v>1.899253236384083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.60802469135803</v>
       </c>
       <c r="AH6" t="n">
-        <v>1258401.043989996</v>
+        <v>1395701.324572732</v>
       </c>
     </row>
   </sheetData>
@@ -31649,28 +31649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1250.202755819672</v>
+        <v>1366.686198878056</v>
       </c>
       <c r="AB2" t="n">
-        <v>1710.582565565413</v>
+        <v>1869.960351244719</v>
       </c>
       <c r="AC2" t="n">
-        <v>1547.326966325559</v>
+        <v>1691.493959827758</v>
       </c>
       <c r="AD2" t="n">
-        <v>1250202.755819672</v>
+        <v>1366686.198878056</v>
       </c>
       <c r="AE2" t="n">
-        <v>1710582.565565413</v>
+        <v>1869960.351244719</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.036002911414408e-07</v>
+        <v>1.737656868623756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.35030864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>1547326.966325559</v>
+        <v>1691493.959827758</v>
       </c>
     </row>
     <row r="3">
@@ -31755,28 +31755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>974.0836302018636</v>
+        <v>1081.514909759184</v>
       </c>
       <c r="AB3" t="n">
-        <v>1332.784196379035</v>
+        <v>1479.776412602915</v>
       </c>
       <c r="AC3" t="n">
-        <v>1205.585143250987</v>
+        <v>1338.548628663331</v>
       </c>
       <c r="AD3" t="n">
-        <v>974083.6302018636</v>
+        <v>1081514.909759184</v>
       </c>
       <c r="AE3" t="n">
-        <v>1332784.196379035</v>
+        <v>1479776.412602915</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.022274199068295e-06</v>
+        <v>1.965871194423748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.29089506172839</v>
       </c>
       <c r="AH3" t="n">
-        <v>1205585.143250987</v>
+        <v>1338548.628663331</v>
       </c>
     </row>
     <row r="4">
@@ -31861,28 +31861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>926.4071661687157</v>
+        <v>1033.923697072056</v>
       </c>
       <c r="AB4" t="n">
-        <v>1267.551154951735</v>
+        <v>1414.660015828264</v>
       </c>
       <c r="AC4" t="n">
-        <v>1146.57785174236</v>
+        <v>1279.646849405416</v>
       </c>
       <c r="AD4" t="n">
-        <v>926407.1661687157</v>
+        <v>1033923.697072057</v>
       </c>
       <c r="AE4" t="n">
-        <v>1267551.154951735</v>
+        <v>1414660.015828264</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.039368672545018e-06</v>
+        <v>1.998744500844236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.9050925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1146577.85174236</v>
+        <v>1279646.849405416</v>
       </c>
     </row>
   </sheetData>
@@ -32158,28 +32158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.1992995399488</v>
+        <v>872.9388491951597</v>
       </c>
       <c r="AB2" t="n">
-        <v>1056.557148659324</v>
+        <v>1194.39344481285</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.7208172785489</v>
+        <v>1080.402210781639</v>
       </c>
       <c r="AD2" t="n">
-        <v>772199.2995399488</v>
+        <v>872938.8491951597</v>
       </c>
       <c r="AE2" t="n">
-        <v>1056557.148659324</v>
+        <v>1194393.44481285</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.054886767326881e-06</v>
+        <v>2.175808730402962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.22453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>955720.817278549</v>
+        <v>1080402.210781639</v>
       </c>
     </row>
     <row r="3">
@@ -32264,28 +32264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>780.8499905836263</v>
+        <v>881.5895402388372</v>
       </c>
       <c r="AB3" t="n">
-        <v>1068.393405786838</v>
+        <v>1206.229701940364</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.4274386381038</v>
+        <v>1091.108832141194</v>
       </c>
       <c r="AD3" t="n">
-        <v>780849.9905836263</v>
+        <v>881589.5402388372</v>
       </c>
       <c r="AE3" t="n">
-        <v>1068393.405786837</v>
+        <v>1206229.701940364</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.055151714398921e-06</v>
+        <v>2.176355210053948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.22067901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>966427.4386381038</v>
+        <v>1091108.832141194</v>
       </c>
     </row>
   </sheetData>
@@ -32561,28 +32561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2679.645673500308</v>
+        <v>2848.034263647472</v>
       </c>
       <c r="AB2" t="n">
-        <v>3666.409428107064</v>
+        <v>3896.806125926729</v>
       </c>
       <c r="AC2" t="n">
-        <v>3316.492458126339</v>
+        <v>3524.900418469882</v>
       </c>
       <c r="AD2" t="n">
-        <v>2679645.673500308</v>
+        <v>2848034.263647472</v>
       </c>
       <c r="AE2" t="n">
-        <v>3666409.428107064</v>
+        <v>3896806.125926729</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.261082608065395e-07</v>
+        <v>1.100047515658836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.13194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3316492.458126339</v>
+        <v>3524900.418469883</v>
       </c>
     </row>
     <row r="3">
@@ -32667,28 +32667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1798.569639816203</v>
+        <v>1937.227462544255</v>
       </c>
       <c r="AB3" t="n">
-        <v>2460.882328488986</v>
+        <v>2650.600078696919</v>
       </c>
       <c r="AC3" t="n">
-        <v>2226.019172928038</v>
+        <v>2397.63052732666</v>
       </c>
       <c r="AD3" t="n">
-        <v>1798569.639816203</v>
+        <v>1937227.462544255</v>
       </c>
       <c r="AE3" t="n">
-        <v>2460882.328488986</v>
+        <v>2650600.078696919</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.034769815977046e-07</v>
+        <v>1.411677361287395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2226019.172928038</v>
+        <v>2397630.52732666</v>
       </c>
     </row>
     <row r="4">
@@ -32773,28 +32773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1574.731291191547</v>
+        <v>1703.478887949411</v>
       </c>
       <c r="AB4" t="n">
-        <v>2154.616824849738</v>
+        <v>2330.774966676946</v>
       </c>
       <c r="AC4" t="n">
-        <v>1948.983219109785</v>
+        <v>2108.329075120509</v>
       </c>
       <c r="AD4" t="n">
-        <v>1574731.291191547</v>
+        <v>1703478.887949411</v>
       </c>
       <c r="AE4" t="n">
-        <v>2154616.824849738</v>
+        <v>2330774.966676946</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.695055622295188e-07</v>
+        <v>1.527686972776852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.57947530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>1948983.219109785</v>
+        <v>2108329.075120509</v>
       </c>
     </row>
     <row r="5">
@@ -32879,28 +32879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1459.439688994378</v>
+        <v>1578.362400636627</v>
       </c>
       <c r="AB5" t="n">
-        <v>1996.869768417055</v>
+        <v>2159.585068985739</v>
       </c>
       <c r="AC5" t="n">
-        <v>1806.291320343653</v>
+        <v>1953.477300998419</v>
       </c>
       <c r="AD5" t="n">
-        <v>1459439.688994378</v>
+        <v>1578362.400636627</v>
       </c>
       <c r="AE5" t="n">
-        <v>1996869.768417055</v>
+        <v>2159585.068985739</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.041816456821325e-07</v>
+        <v>1.588611483508731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.63425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1806291.320343653</v>
+        <v>1953477.30099842</v>
       </c>
     </row>
     <row r="6">
@@ -32985,28 +32985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1389.942201144949</v>
+        <v>1498.954776325562</v>
       </c>
       <c r="AB6" t="n">
-        <v>1901.780239528691</v>
+        <v>2050.936054186199</v>
       </c>
       <c r="AC6" t="n">
-        <v>1720.277002633403</v>
+        <v>1855.197595681498</v>
       </c>
       <c r="AD6" t="n">
-        <v>1389942.201144949</v>
+        <v>1498954.776325562</v>
       </c>
       <c r="AE6" t="n">
-        <v>1901780.239528691</v>
+        <v>2050936.054186199</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.256187771456493e-07</v>
+        <v>1.626275677842976e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.09027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1720277.002633403</v>
+        <v>1855197.595681498</v>
       </c>
     </row>
     <row r="7">
@@ -33091,28 +33091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1327.48250686003</v>
+        <v>1446.319877647707</v>
       </c>
       <c r="AB7" t="n">
-        <v>1816.320130280828</v>
+        <v>1978.918663727313</v>
       </c>
       <c r="AC7" t="n">
-        <v>1642.973086268139</v>
+        <v>1790.053443890966</v>
       </c>
       <c r="AD7" t="n">
-        <v>1327482.50686003</v>
+        <v>1446319.877647707</v>
       </c>
       <c r="AE7" t="n">
-        <v>1816320.130280828</v>
+        <v>1978918.663727313</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.394670532848721e-07</v>
+        <v>1.650606552735899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.74691358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>1642973.086268139</v>
+        <v>1790053.443890966</v>
       </c>
     </row>
     <row r="8">
@@ -33197,28 +33197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1275.209668948727</v>
+        <v>1393.876447535811</v>
       </c>
       <c r="AB8" t="n">
-        <v>1744.798127335732</v>
+        <v>1907.16324900737</v>
       </c>
       <c r="AC8" t="n">
-        <v>1578.277042902361</v>
+        <v>1725.146265242538</v>
       </c>
       <c r="AD8" t="n">
-        <v>1275209.668948727</v>
+        <v>1393876.447535811</v>
       </c>
       <c r="AE8" t="n">
-        <v>1744798.127335732</v>
+        <v>1907163.24900737</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.508226397190347e-07</v>
+        <v>1.670557870148096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.47685185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1578277.042902361</v>
+        <v>1725146.265242537</v>
       </c>
     </row>
     <row r="9">
@@ -33303,28 +33303,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1234.234007728882</v>
+        <v>1343.161242054923</v>
       </c>
       <c r="AB9" t="n">
-        <v>1688.73341993615</v>
+        <v>1837.77246747146</v>
       </c>
       <c r="AC9" t="n">
-        <v>1527.563072489684</v>
+        <v>1662.378042505842</v>
       </c>
       <c r="AD9" t="n">
-        <v>1234234.007728882</v>
+        <v>1343161.242054923</v>
       </c>
       <c r="AE9" t="n">
-        <v>1688733.41993615</v>
+        <v>1837772.46747146</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.580791364159875e-07</v>
+        <v>1.683307248591987e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.3070987654321</v>
       </c>
       <c r="AH9" t="n">
-        <v>1527563.072489684</v>
+        <v>1662378.042505842</v>
       </c>
     </row>
     <row r="10">
@@ -33409,28 +33409,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1233.048543800317</v>
+        <v>1341.975778126358</v>
       </c>
       <c r="AB10" t="n">
-        <v>1687.11141589011</v>
+        <v>1836.15046342542</v>
       </c>
       <c r="AC10" t="n">
-        <v>1526.095870233301</v>
+        <v>1660.910840249458</v>
       </c>
       <c r="AD10" t="n">
-        <v>1233048.543800317</v>
+        <v>1341975.778126358</v>
       </c>
       <c r="AE10" t="n">
-        <v>1687111.415890109</v>
+        <v>1836150.46342542</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.582453157296583e-07</v>
+        <v>1.683599219090702e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.30324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1526095.870233301</v>
+        <v>1660910.840249458</v>
       </c>
     </row>
   </sheetData>
@@ -33706,28 +33706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3615.245644880343</v>
+        <v>3820.318439474083</v>
       </c>
       <c r="AB2" t="n">
-        <v>4946.538584706943</v>
+        <v>5227.128229443294</v>
       </c>
       <c r="AC2" t="n">
-        <v>4474.447884692833</v>
+        <v>4728.258447545575</v>
       </c>
       <c r="AD2" t="n">
-        <v>3615245.644880343</v>
+        <v>3820318.439474083</v>
       </c>
       <c r="AE2" t="n">
-        <v>4946538.584706943</v>
+        <v>5227128.229443294</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.288747551677678e-07</v>
+        <v>9.04316892267236e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.93904320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>4474447.884692833</v>
+        <v>4728258.447545575</v>
       </c>
     </row>
     <row r="3">
@@ -33812,28 +33812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.98424573152</v>
+        <v>2377.59691426259</v>
       </c>
       <c r="AB3" t="n">
-        <v>3042.953360270334</v>
+        <v>3253.132990267201</v>
       </c>
       <c r="AC3" t="n">
-        <v>2752.538162377883</v>
+        <v>2942.658543476804</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223984.24573152</v>
+        <v>2377596.91426259</v>
       </c>
       <c r="AE3" t="n">
-        <v>3042953.360270333</v>
+        <v>3253132.9902672</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.241868998144031e-07</v>
+        <v>1.238278893559708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2752538.162377883</v>
+        <v>2942658.543476804</v>
       </c>
     </row>
     <row r="4">
@@ -33918,28 +33918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1904.792216843225</v>
+        <v>2048.2322299479</v>
       </c>
       <c r="AB4" t="n">
-        <v>2606.22074458672</v>
+        <v>2802.481698643298</v>
       </c>
       <c r="AC4" t="n">
-        <v>2357.486694577152</v>
+        <v>2535.016778632549</v>
       </c>
       <c r="AD4" t="n">
-        <v>1904792.216843225</v>
+        <v>2048232.2299479</v>
       </c>
       <c r="AE4" t="n">
-        <v>2606220.74458672</v>
+        <v>2802481.698643298</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.987567456934272e-07</v>
+        <v>1.365785019770581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.78317901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>2357486.694577152</v>
+        <v>2535016.778632549</v>
       </c>
     </row>
     <row r="5">
@@ -34024,28 +34024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1754.064682081352</v>
+        <v>1887.332129268182</v>
       </c>
       <c r="AB5" t="n">
-        <v>2399.988681895999</v>
+        <v>2582.331082481847</v>
       </c>
       <c r="AC5" t="n">
-        <v>2170.937130501115</v>
+        <v>2335.877028294216</v>
       </c>
       <c r="AD5" t="n">
-        <v>1754064.682081352</v>
+        <v>1887332.129268182</v>
       </c>
       <c r="AE5" t="n">
-        <v>2399988.681895999</v>
+        <v>2582331.082481847</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.397514784315021e-07</v>
+        <v>1.435881444201469e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.52546296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>2170937.130501115</v>
+        <v>2335877.028294216</v>
       </c>
     </row>
     <row r="6">
@@ -34130,28 +34130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1662.7102462677</v>
+        <v>1795.892352599959</v>
       </c>
       <c r="AB6" t="n">
-        <v>2274.993512542495</v>
+        <v>2457.219146006146</v>
       </c>
       <c r="AC6" t="n">
-        <v>2057.871324678888</v>
+        <v>2222.70559944005</v>
       </c>
       <c r="AD6" t="n">
-        <v>1662710.2462677</v>
+        <v>1795892.352599959</v>
       </c>
       <c r="AE6" t="n">
-        <v>2274993.512542496</v>
+        <v>2457219.146006146</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.640387224364814e-07</v>
+        <v>1.477409924821331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.83487654320988</v>
       </c>
       <c r="AH6" t="n">
-        <v>2057871.324678888</v>
+        <v>2222705.59944005</v>
       </c>
     </row>
     <row r="7">
@@ -34236,28 +34236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1602.08868874346</v>
+        <v>1725.012977811855</v>
       </c>
       <c r="AB7" t="n">
-        <v>2192.048423103464</v>
+        <v>2360.238858443737</v>
       </c>
       <c r="AC7" t="n">
-        <v>1982.842398161754</v>
+        <v>2134.980974409909</v>
       </c>
       <c r="AD7" t="n">
-        <v>1602088.68874346</v>
+        <v>1725012.977811855</v>
       </c>
       <c r="AE7" t="n">
-        <v>2192048.423103464</v>
+        <v>2360238.858443737</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.813333753103568e-07</v>
+        <v>1.506981853878112e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.36805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1982842.398161754</v>
+        <v>2134980.974409909</v>
       </c>
     </row>
     <row r="8">
@@ -34342,28 +34342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1552.813060733871</v>
+        <v>1665.650124738993</v>
       </c>
       <c r="AB8" t="n">
-        <v>2124.627334973462</v>
+        <v>2279.015983965203</v>
       </c>
       <c r="AC8" t="n">
-        <v>1921.855884056787</v>
+        <v>2061.509897074586</v>
       </c>
       <c r="AD8" t="n">
-        <v>1552813.060733871</v>
+        <v>1665650.124738993</v>
       </c>
       <c r="AE8" t="n">
-        <v>2124627.334973462</v>
+        <v>2279015.983965203</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.938773364997417e-07</v>
+        <v>1.528430629582876e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.04012345679012</v>
       </c>
       <c r="AH8" t="n">
-        <v>1921855.884056787</v>
+        <v>2061509.897074586</v>
       </c>
     </row>
     <row r="9">
@@ -34448,28 +34448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1499.509038619268</v>
+        <v>1622.518579033684</v>
       </c>
       <c r="AB9" t="n">
-        <v>2051.694420308776</v>
+        <v>2220.001500301697</v>
       </c>
       <c r="AC9" t="n">
-        <v>1855.88358440571</v>
+        <v>2008.127672904578</v>
       </c>
       <c r="AD9" t="n">
-        <v>1499509.038619268</v>
+        <v>1622518.579033684</v>
       </c>
       <c r="AE9" t="n">
-        <v>2051694.420308776</v>
+        <v>2220001.500301697</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.037523697764913e-07</v>
+        <v>1.545315835988754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.78549382716049</v>
       </c>
       <c r="AH9" t="n">
-        <v>1855883.58440571</v>
+        <v>2008127.672904578</v>
       </c>
     </row>
     <row r="10">
@@ -34554,28 +34554,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1462.685082287943</v>
+        <v>1585.694622702359</v>
       </c>
       <c r="AB10" t="n">
-        <v>2001.310258697959</v>
+        <v>2169.61733869088</v>
       </c>
       <c r="AC10" t="n">
-        <v>1810.308016464415</v>
+        <v>1962.552104963282</v>
       </c>
       <c r="AD10" t="n">
-        <v>1462685.082287943</v>
+        <v>1585694.622702359</v>
       </c>
       <c r="AE10" t="n">
-        <v>2001310.258697959</v>
+        <v>2169617.33869088</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.119192891891546e-07</v>
+        <v>1.559280358043345e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.58101851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>1810308.016464415</v>
+        <v>1962552.104963282</v>
       </c>
     </row>
     <row r="11">
@@ -34660,28 +34660,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1426.321334165035</v>
+        <v>1539.073057315586</v>
       </c>
       <c r="AB11" t="n">
-        <v>1951.555774260851</v>
+        <v>2105.827656130394</v>
       </c>
       <c r="AC11" t="n">
-        <v>1765.302030191126</v>
+        <v>1904.850420176987</v>
       </c>
       <c r="AD11" t="n">
-        <v>1426321.334165035</v>
+        <v>1539073.057315586</v>
       </c>
       <c r="AE11" t="n">
-        <v>1951555.774260851</v>
+        <v>2105827.656130394</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.180578233882154e-07</v>
+        <v>1.569776567430782e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.43055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1765302.030191126</v>
+        <v>1904850.420176987</v>
       </c>
     </row>
     <row r="12">
@@ -34766,28 +34766,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1392.129206744407</v>
+        <v>1504.880929894957</v>
       </c>
       <c r="AB12" t="n">
-        <v>1904.772597073747</v>
+        <v>2059.04447894329</v>
       </c>
       <c r="AC12" t="n">
-        <v>1722.983773774158</v>
+        <v>1862.532163760019</v>
       </c>
       <c r="AD12" t="n">
-        <v>1392129.206744407</v>
+        <v>1504880.929894957</v>
       </c>
       <c r="AE12" t="n">
-        <v>1904772.597073747</v>
+        <v>2059044.47894329</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.228618936309587e-07</v>
+        <v>1.577990992168777e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>1722983.773774158</v>
+        <v>1862532.163760019</v>
       </c>
     </row>
     <row r="13">
@@ -34872,28 +34872,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1373.974627439505</v>
+        <v>1486.726350590056</v>
       </c>
       <c r="AB13" t="n">
-        <v>1879.932700745267</v>
+        <v>2034.204582614811</v>
       </c>
       <c r="AC13" t="n">
-        <v>1700.514562288256</v>
+        <v>1840.062952274116</v>
       </c>
       <c r="AD13" t="n">
-        <v>1373974.627439505</v>
+        <v>1486726.350590056</v>
       </c>
       <c r="AE13" t="n">
-        <v>1879932.700745267</v>
+        <v>2034204.582614811</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.253173073105828e-07</v>
+        <v>1.582189475923752e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.25694444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>1700514.562288256</v>
+        <v>1840062.952274116</v>
       </c>
     </row>
     <row r="14">
@@ -34978,28 +34978,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1369.425197291923</v>
+        <v>1482.176920442474</v>
       </c>
       <c r="AB14" t="n">
-        <v>1873.707969710653</v>
+        <v>2027.979851580196</v>
       </c>
       <c r="AC14" t="n">
-        <v>1694.88391084712</v>
+        <v>1834.43230083298</v>
       </c>
       <c r="AD14" t="n">
-        <v>1369425.197291923</v>
+        <v>1482176.920442474</v>
       </c>
       <c r="AE14" t="n">
-        <v>1873707.969710653</v>
+        <v>2027979.851580196</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.259578500096152e-07</v>
+        <v>1.583284732555484e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.24151234567901</v>
       </c>
       <c r="AH14" t="n">
-        <v>1694883.91084712</v>
+        <v>1834432.30083298</v>
       </c>
     </row>
     <row r="15">
@@ -35084,28 +35084,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1375.094918715737</v>
+        <v>1487.846641866287</v>
       </c>
       <c r="AB15" t="n">
-        <v>1881.465532693171</v>
+        <v>2035.737414562714</v>
       </c>
       <c r="AC15" t="n">
-        <v>1701.901102906394</v>
+        <v>1841.449492892254</v>
       </c>
       <c r="AD15" t="n">
-        <v>1375094.918715737</v>
+        <v>1487846.641866287</v>
       </c>
       <c r="AE15" t="n">
-        <v>1881465.532693171</v>
+        <v>2035737.414562714</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.26171364242626e-07</v>
+        <v>1.583649818099396e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1701901.102906394</v>
+        <v>1841449.492892254</v>
       </c>
     </row>
   </sheetData>
@@ -35381,28 +35381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>702.2624657777141</v>
+        <v>816.0227826030322</v>
       </c>
       <c r="AB2" t="n">
-        <v>960.8664873104851</v>
+        <v>1116.518371541858</v>
       </c>
       <c r="AC2" t="n">
-        <v>869.1627383461566</v>
+        <v>1009.959425205279</v>
       </c>
       <c r="AD2" t="n">
-        <v>702262.465777714</v>
+        <v>816022.7826030322</v>
       </c>
       <c r="AE2" t="n">
-        <v>960866.4873104851</v>
+        <v>1116518.371541858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.027933157047595e-06</v>
+        <v>2.203334211760108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>869162.7383461567</v>
+        <v>1009959.425205279</v>
       </c>
     </row>
   </sheetData>
@@ -35678,28 +35678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1743.712404814614</v>
+        <v>1884.215472240212</v>
       </c>
       <c r="AB2" t="n">
-        <v>2385.824239429408</v>
+        <v>2578.066734838975</v>
       </c>
       <c r="AC2" t="n">
-        <v>2158.124522543616</v>
+        <v>2332.01966400533</v>
       </c>
       <c r="AD2" t="n">
-        <v>1743712.404814614</v>
+        <v>1884215.472240212</v>
       </c>
       <c r="AE2" t="n">
-        <v>2385824.239429408</v>
+        <v>2578066.734838975</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.805858434579747e-07</v>
+        <v>1.438176754428591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.05478395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>2158124.522543616</v>
+        <v>2332019.66400533</v>
       </c>
     </row>
     <row r="3">
@@ -35784,28 +35784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1296.34366295929</v>
+        <v>1418.17549378075</v>
       </c>
       <c r="AB3" t="n">
-        <v>1773.714590306997</v>
+        <v>1940.410276077958</v>
       </c>
       <c r="AC3" t="n">
-        <v>1604.433759232159</v>
+        <v>1755.220242712004</v>
       </c>
       <c r="AD3" t="n">
-        <v>1296343.66295929</v>
+        <v>1418175.49378075</v>
       </c>
       <c r="AE3" t="n">
-        <v>1773714.590306997</v>
+        <v>1940410.276077958</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.256156126860832e-07</v>
+        <v>1.705384319813087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.50231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1604433.759232159</v>
+        <v>1755220.242712004</v>
       </c>
     </row>
     <row r="4">
@@ -35890,28 +35890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1155.446271375744</v>
+        <v>1267.814606876104</v>
       </c>
       <c r="AB4" t="n">
-        <v>1580.932563188173</v>
+        <v>1734.679877160857</v>
       </c>
       <c r="AC4" t="n">
-        <v>1430.050578210281</v>
+        <v>1569.124464323123</v>
       </c>
       <c r="AD4" t="n">
-        <v>1155446.271375744</v>
+        <v>1267814.606876104</v>
       </c>
       <c r="AE4" t="n">
-        <v>1580932.563188173</v>
+        <v>1734679.877160857</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.774077597026878e-07</v>
+        <v>1.80080785653937e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.20601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>1430050.578210281</v>
+        <v>1569124.464323123</v>
       </c>
     </row>
     <row r="5">
@@ -35996,28 +35996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1065.057409336227</v>
+        <v>1177.510996182607</v>
       </c>
       <c r="AB5" t="n">
-        <v>1457.258534470548</v>
+        <v>1611.122493095881</v>
       </c>
       <c r="AC5" t="n">
-        <v>1318.179825215877</v>
+        <v>1457.359223579431</v>
       </c>
       <c r="AD5" t="n">
-        <v>1065057.409336227</v>
+        <v>1177510.996182607</v>
       </c>
       <c r="AE5" t="n">
-        <v>1457258.534470548</v>
+        <v>1611122.493095881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.003744742521574e-06</v>
+        <v>1.849331970561363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.59645061728395</v>
       </c>
       <c r="AH5" t="n">
-        <v>1318179.825215877</v>
+        <v>1457359.22357943</v>
       </c>
     </row>
     <row r="6">
@@ -36102,28 +36102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1050.931707191948</v>
+        <v>1163.385294038329</v>
       </c>
       <c r="AB6" t="n">
-        <v>1437.931125614749</v>
+        <v>1591.795084240083</v>
       </c>
       <c r="AC6" t="n">
-        <v>1300.696997135087</v>
+        <v>1439.87639549864</v>
       </c>
       <c r="AD6" t="n">
-        <v>1050931.707191948</v>
+        <v>1163385.294038329</v>
       </c>
       <c r="AE6" t="n">
-        <v>1437931.125614749</v>
+        <v>1591795.084240083</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.007624744454713e-06</v>
+        <v>1.856480612359245e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.50771604938272</v>
       </c>
       <c r="AH6" t="n">
-        <v>1300696.997135087</v>
+        <v>1439876.39549864</v>
       </c>
     </row>
   </sheetData>
@@ -36399,28 +36399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2271.032956151589</v>
+        <v>2435.996266537787</v>
       </c>
       <c r="AB2" t="n">
-        <v>3107.327481509688</v>
+        <v>3333.037560447719</v>
       </c>
       <c r="AC2" t="n">
-        <v>2810.768507835798</v>
+        <v>3014.937133626059</v>
       </c>
       <c r="AD2" t="n">
-        <v>2271032.956151589</v>
+        <v>2435996.266537787</v>
       </c>
       <c r="AE2" t="n">
-        <v>3107327.481509688</v>
+        <v>3333037.560447719</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.824280642734179e-07</v>
+        <v>1.219107934397715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.99845679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>2810768.507835798</v>
+        <v>3014937.133626059</v>
       </c>
     </row>
     <row r="3">
@@ -36505,28 +36505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1597.256338778692</v>
+        <v>1733.078356442181</v>
       </c>
       <c r="AB3" t="n">
-        <v>2185.436588693433</v>
+        <v>2371.274265305142</v>
       </c>
       <c r="AC3" t="n">
-        <v>1976.861587948048</v>
+        <v>2144.963177528753</v>
       </c>
       <c r="AD3" t="n">
-        <v>1597256.338778692</v>
+        <v>1733078.356442181</v>
       </c>
       <c r="AE3" t="n">
-        <v>2185436.588693433</v>
+        <v>2371274.265305142</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.478703162325453e-07</v>
+        <v>1.514658443831614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.75617283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>1976861.587948048</v>
+        <v>2144963.177528753</v>
       </c>
     </row>
     <row r="4">
@@ -36611,28 +36611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1416.547131206959</v>
+        <v>1533.027050751767</v>
       </c>
       <c r="AB4" t="n">
-        <v>1938.18227856621</v>
+        <v>2097.555243218794</v>
       </c>
       <c r="AC4" t="n">
-        <v>1753.204882155763</v>
+        <v>1897.367514743265</v>
       </c>
       <c r="AD4" t="n">
-        <v>1416547.131206959</v>
+        <v>1533027.050751767</v>
       </c>
       <c r="AE4" t="n">
-        <v>1938182.27856621</v>
+        <v>2097555.243218794</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.086588822962137e-07</v>
+        <v>1.623252780859327e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.03163580246914</v>
       </c>
       <c r="AH4" t="n">
-        <v>1753204.882155763</v>
+        <v>1897367.514743265</v>
       </c>
     </row>
     <row r="5">
@@ -36717,28 +36717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1311.728355364436</v>
+        <v>1428.122934054672</v>
       </c>
       <c r="AB5" t="n">
-        <v>1794.764605180445</v>
+        <v>1954.020802710829</v>
       </c>
       <c r="AC5" t="n">
-        <v>1623.474790229966</v>
+        <v>1767.531799785529</v>
       </c>
       <c r="AD5" t="n">
-        <v>1311728.355364436</v>
+        <v>1428122.934054672</v>
       </c>
       <c r="AE5" t="n">
-        <v>1794764.605180445</v>
+        <v>1954020.80271083</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.409209704305631e-07</v>
+        <v>1.680886646879622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.20601851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>1623474.790229966</v>
+        <v>1767531.799785529</v>
       </c>
     </row>
     <row r="6">
@@ -36823,28 +36823,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1234.741603700302</v>
+        <v>1351.221433736559</v>
       </c>
       <c r="AB6" t="n">
-        <v>1689.427935137801</v>
+        <v>1848.800777320835</v>
       </c>
       <c r="AC6" t="n">
-        <v>1528.191304135247</v>
+        <v>1672.353825941522</v>
       </c>
       <c r="AD6" t="n">
-        <v>1234741.603700302</v>
+        <v>1351221.433736559</v>
       </c>
       <c r="AE6" t="n">
-        <v>1689427.935137801</v>
+        <v>1848800.777320835</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.601650230019291e-07</v>
+        <v>1.7152647424005e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.74305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1528191.304135247</v>
+        <v>1672353.825941522</v>
       </c>
     </row>
     <row r="7">
@@ -36929,28 +36929,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1181.271449589704</v>
+        <v>1297.580687425369</v>
       </c>
       <c r="AB7" t="n">
-        <v>1616.267711346967</v>
+        <v>1775.407141755154</v>
       </c>
       <c r="AC7" t="n">
-        <v>1462.013389421991</v>
+        <v>1605.964775945615</v>
       </c>
       <c r="AD7" t="n">
-        <v>1181271.449589704</v>
+        <v>1297580.687425369</v>
       </c>
       <c r="AE7" t="n">
-        <v>1616267.711346966</v>
+        <v>1775407.141755154</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.73069858255669e-07</v>
+        <v>1.738318288808618e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.44212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1462013.389421991</v>
+        <v>1605964.775945615</v>
       </c>
     </row>
     <row r="8">
@@ -37035,28 +37035,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1161.812310807778</v>
+        <v>1268.578466111684</v>
       </c>
       <c r="AB8" t="n">
-        <v>1589.642859188921</v>
+        <v>1735.725023066068</v>
       </c>
       <c r="AC8" t="n">
-        <v>1437.929575785695</v>
+        <v>1570.069862970012</v>
       </c>
       <c r="AD8" t="n">
-        <v>1161812.310807778</v>
+        <v>1268578.466111684</v>
       </c>
       <c r="AE8" t="n">
-        <v>1589642.859188921</v>
+        <v>1735725.023066068</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.770884692338071e-07</v>
+        <v>1.745497244049742e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1437929.575785695</v>
+        <v>1570069.862970012</v>
       </c>
     </row>
     <row r="9">
@@ -37141,28 +37141,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1167.652546395998</v>
+        <v>1274.418701699903</v>
       </c>
       <c r="AB9" t="n">
-        <v>1597.633727173732</v>
+        <v>1743.71589105088</v>
       </c>
       <c r="AC9" t="n">
-        <v>1445.15780654529</v>
+        <v>1577.298093729607</v>
       </c>
       <c r="AD9" t="n">
-        <v>1167652.546395998</v>
+        <v>1274418.701699903</v>
       </c>
       <c r="AE9" t="n">
-        <v>1597633.727173733</v>
+        <v>1743715.89105088</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.769752689245638e-07</v>
+        <v>1.745295019958443e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1445157.80654529</v>
+        <v>1577298.093729607</v>
       </c>
     </row>
   </sheetData>
